--- a/capiq_data/in_process_data/IQ272383.xlsx
+++ b/capiq_data/in_process_data/IQ272383.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB9F37-0915-4525-A3CD-8F5159468B8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C22645-A6F3-4C88-9807-0E55225549C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5951c4e4-77e8-4298-b279-aa3f39041e43"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"98d9f01a-5b72-4fdc-8b43-a9fd1dffeb5e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ41998</t>
+  </si>
+  <si>
+    <t>FQ11999</t>
+  </si>
+  <si>
+    <t>FQ21999</t>
+  </si>
+  <si>
+    <t>FQ31999</t>
+  </si>
+  <si>
+    <t>FQ41999</t>
+  </si>
+  <si>
+    <t>FQ12000</t>
+  </si>
+  <si>
+    <t>FQ22000</t>
+  </si>
+  <si>
+    <t>FQ32000</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36160</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>77.165000000000006</v>
+        <v>5.1980000000000004</v>
       </c>
       <c r="D2">
-        <v>268.44499999999999</v>
+        <v>18.986999999999998</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>268.44499999999999</v>
+        <v>18.986999999999998</v>
       </c>
       <c r="G2">
-        <v>1794.4949999999999</v>
+        <v>98.057000000000002</v>
       </c>
       <c r="H2">
-        <v>22377.633000000002</v>
+        <v>2954.28</v>
       </c>
       <c r="I2">
-        <v>19235.749</v>
+        <v>1744.348</v>
       </c>
       <c r="J2">
-        <v>693.84500000000003</v>
+        <v>1018.528</v>
       </c>
       <c r="K2">
-        <v>18.347000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19255.696</v>
+        <v>1759.616</v>
       </c>
       <c r="O2">
-        <v>20152.877</v>
+        <v>2785.799</v>
       </c>
       <c r="P2">
-        <v>712.19200000000001</v>
+        <v>1018.528</v>
       </c>
       <c r="Q2">
-        <v>-933.20100000000002</v>
+        <v>13.85</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36160</v>
       </c>
       <c r="S2">
-        <v>1502</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2224.7559999999999</v>
+        <v>168.48099999999999</v>
       </c>
       <c r="U2">
-        <v>1528.075</v>
+        <v>48.804000000000002</v>
       </c>
       <c r="V2">
-        <v>50.564</v>
+        <v>1.5589999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>398.33499999999998</v>
+        <v>397.363</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-585.64800000000002</v>
+        <v>-91.320999999999998</v>
       </c>
       <c r="AA2">
-        <v>75.966999999999999</v>
+        <v>5.1980000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36250</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>88.772000000000006</v>
+        <v>5.7089999999999996</v>
       </c>
       <c r="D3">
-        <v>278.90100000000001</v>
+        <v>23.75</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>278.90100000000001</v>
+        <v>23.75</v>
       </c>
       <c r="G3">
-        <v>2887.018</v>
+        <v>178.221</v>
       </c>
       <c r="H3">
-        <v>23575.922999999999</v>
+        <v>3091.002</v>
       </c>
       <c r="I3">
-        <v>20028.526000000002</v>
+        <v>1858.59</v>
       </c>
       <c r="J3">
-        <v>990.76700000000005</v>
+        <v>1020.628</v>
       </c>
       <c r="K3">
-        <v>11.590999999999999</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-67.900000000000006</v>
       </c>
       <c r="M3">
-        <v>-2.4209999999999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>20040.116999999998</v>
+        <v>1870.2829999999999</v>
       </c>
       <c r="O3">
-        <v>21257.035</v>
+        <v>2900.951</v>
       </c>
       <c r="P3">
-        <v>1002.3579999999999</v>
+        <v>1020.628</v>
       </c>
       <c r="Q3">
-        <v>741.90200000000004</v>
+        <v>8.109</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36250</v>
       </c>
       <c r="S3">
-        <v>1553</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2318.8879999999999</v>
+        <v>190.05099999999999</v>
       </c>
       <c r="U3">
-        <v>2269.9769999999999</v>
+        <v>56.912999999999997</v>
       </c>
       <c r="V3">
-        <v>60.265999999999998</v>
+        <v>-56.984000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1104.749</v>
+        <v>115.95</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-156.48599999999999</v>
+        <v>10.541</v>
       </c>
       <c r="AA3">
-        <v>88.772000000000006</v>
+        <v>5.7089999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>36341</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>84.831999999999994</v>
+        <v>5.798</v>
       </c>
       <c r="D4">
-        <v>270.99799999999999</v>
+        <v>24.84</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>270.99799999999999</v>
+        <v>24.84</v>
       </c>
       <c r="G4">
-        <v>1349.854</v>
+        <v>104.298</v>
       </c>
       <c r="H4">
-        <v>23797.773000000001</v>
+        <v>3185.1439999999998</v>
       </c>
       <c r="I4">
-        <v>19939.848000000002</v>
+        <v>1933.251</v>
       </c>
       <c r="J4">
-        <v>1189.817</v>
+        <v>991.82799999999997</v>
       </c>
       <c r="K4">
-        <v>13.773</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19953.620999999999</v>
+        <v>1947.2070000000001</v>
       </c>
       <c r="O4">
-        <v>21397.656999999999</v>
+        <v>2942.8020000000001</v>
       </c>
       <c r="P4">
-        <v>1203.5899999999999</v>
+        <v>991.82799999999997</v>
       </c>
       <c r="Q4">
-        <v>-1479.21</v>
+        <v>-16.992000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>36341</v>
       </c>
       <c r="S4">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2400.116</v>
+        <v>242.34200000000001</v>
       </c>
       <c r="U4">
-        <v>790.76700000000005</v>
+        <v>39.920999999999999</v>
       </c>
       <c r="V4">
-        <v>36.052</v>
+        <v>62.131</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>114.92</v>
+        <v>91.177000000000007</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-782.27800000000002</v>
+        <v>14.144</v>
       </c>
       <c r="AA4">
-        <v>84.831999999999994</v>
+        <v>5.798</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>36433</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>87.793000000000006</v>
+        <v>5.5739999999999998</v>
       </c>
       <c r="D5">
-        <v>284.80200000000002</v>
+        <v>26.408000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>284.80200000000002</v>
+        <v>26.408000000000001</v>
       </c>
       <c r="G5">
-        <v>2895.7370000000001</v>
+        <v>94.555000000000007</v>
       </c>
       <c r="H5">
-        <v>26778.366999999998</v>
+        <v>3334.2190000000001</v>
       </c>
       <c r="I5">
-        <v>21770.04</v>
+        <v>2035.252</v>
       </c>
       <c r="J5">
-        <v>2188.277</v>
+        <v>1039.078</v>
       </c>
       <c r="K5">
-        <v>21.637</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21791.677</v>
+        <v>2047.4069999999999</v>
       </c>
       <c r="O5">
-        <v>24289.248</v>
+        <v>3094.5140000000001</v>
       </c>
       <c r="P5">
-        <v>2209.9140000000002</v>
+        <v>1039.078</v>
       </c>
       <c r="Q5">
-        <v>1273.4780000000001</v>
+        <v>5.8550000000000004</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>36433</v>
       </c>
       <c r="S5">
-        <v>1829</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2489.1190000000001</v>
+        <v>239.70500000000001</v>
       </c>
       <c r="U5">
-        <v>2064.2449999999999</v>
+        <v>45.776000000000003</v>
       </c>
       <c r="V5">
-        <v>6.9790000000000001</v>
+        <v>22.879000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2847.8649999999998</v>
+        <v>142.20699999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-292.38200000000001</v>
+        <v>3.516</v>
       </c>
       <c r="AA5">
-        <v>87.793000000000006</v>
+        <v>5.5739999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>36525</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>90.691000000000003</v>
+        <v>5.141</v>
       </c>
       <c r="D6">
-        <v>299.77199999999999</v>
+        <v>26.675000000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>299.77199999999999</v>
+        <v>26.675000000000001</v>
       </c>
       <c r="G6">
-        <v>1188.7049999999999</v>
+        <v>192.51499999999999</v>
       </c>
       <c r="H6">
-        <v>27791.800999999999</v>
+        <v>3598.7460000000001</v>
       </c>
       <c r="I6">
-        <v>22459.258999999998</v>
+        <v>2137.7190000000001</v>
       </c>
       <c r="J6">
-        <v>2263.259</v>
+        <v>1161.943</v>
       </c>
       <c r="K6">
-        <v>19.05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22544.02</v>
+        <v>2183.509</v>
       </c>
       <c r="O6">
-        <v>25196.778999999999</v>
+        <v>3358.5859999999998</v>
       </c>
       <c r="P6">
-        <v>2348.02</v>
+        <v>1192.3779999999999</v>
       </c>
       <c r="Q6">
-        <v>-1433.4649999999999</v>
+        <v>16.815999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>36525</v>
       </c>
       <c r="S6">
-        <v>1821</v>
+        <v>231</v>
       </c>
       <c r="T6">
-        <v>2595.0219999999999</v>
+        <v>240.16</v>
       </c>
       <c r="U6">
-        <v>630.78</v>
+        <v>62.591999999999999</v>
       </c>
       <c r="V6">
-        <v>-38.768999999999998</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>796.55899999999997</v>
+        <v>250.91300000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-605.57600000000002</v>
+        <v>-14.824</v>
       </c>
       <c r="AA6">
-        <v>90.691000000000003</v>
+        <v>5.141</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>36616</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>91.757999999999996</v>
+        <v>6.0190000000000001</v>
       </c>
       <c r="D7">
-        <v>301.601</v>
+        <v>30.545000000000002</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>301.601</v>
+        <v>30.545000000000002</v>
       </c>
       <c r="G7">
-        <v>2195.366</v>
+        <v>405.74200000000002</v>
       </c>
       <c r="H7">
-        <v>29718.987000000001</v>
+        <v>3767.9580000000001</v>
       </c>
       <c r="I7">
-        <v>23254.960999999999</v>
+        <v>2347.38</v>
       </c>
       <c r="J7">
-        <v>3110.03</v>
+        <v>1146.748</v>
       </c>
       <c r="K7">
-        <v>13.763</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="M7">
-        <v>-2.79</v>
+        <v>-15.63</v>
       </c>
       <c r="N7">
-        <v>23333.756000000001</v>
+        <v>2361.018</v>
       </c>
       <c r="O7">
-        <v>26855.513999999999</v>
+        <v>3520.9380000000001</v>
       </c>
       <c r="P7">
-        <v>3188.8249999999998</v>
+        <v>1146.748</v>
       </c>
       <c r="Q7">
-        <v>798.50599999999997</v>
+        <v>-13.215</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>36616</v>
       </c>
       <c r="S7">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2863.473</v>
+        <v>247.02</v>
       </c>
       <c r="U7">
-        <v>1429.2860000000001</v>
+        <v>49.377000000000002</v>
       </c>
       <c r="V7">
-        <v>23.715</v>
+        <v>-1.76</v>
       </c>
       <c r="W7">
-        <v>-2.4510000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1815.1669999999999</v>
+        <v>157.80799999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-105.96599999999999</v>
+        <v>-34.558999999999997</v>
       </c>
       <c r="AA7">
-        <v>91.757999999999996</v>
+        <v>6.0190000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>97.906999999999996</v>
+        <v>5.4850000000000003</v>
       </c>
       <c r="D8">
-        <v>313.58999999999997</v>
+        <v>30.687999999999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>313.58999999999997</v>
+        <v>30.687999999999999</v>
       </c>
       <c r="G8">
-        <v>1573.691</v>
+        <v>265.86200000000002</v>
       </c>
       <c r="H8">
-        <v>30987.001</v>
+        <v>3870.451</v>
       </c>
       <c r="I8">
-        <v>24215.303</v>
+        <v>2309.4189999999999</v>
       </c>
       <c r="J8">
-        <v>3203.5810000000001</v>
+        <v>1283.586</v>
       </c>
       <c r="K8">
-        <v>16.181999999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24295.830999999998</v>
+        <v>2325.614</v>
       </c>
       <c r="O8">
-        <v>27930.387999999999</v>
+        <v>3622.5810000000001</v>
       </c>
       <c r="P8">
-        <v>3284.1089999999999</v>
+        <v>1283.586</v>
       </c>
       <c r="Q8">
-        <v>-628.46799999999996</v>
+        <v>11.519</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>36707</v>
       </c>
       <c r="S8">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3056.6129999999998</v>
+        <v>247.87</v>
       </c>
       <c r="U8">
-        <v>800.81799999999998</v>
+        <v>60.896000000000001</v>
       </c>
       <c r="V8">
-        <v>77.903000000000006</v>
+        <v>-4.95</v>
       </c>
       <c r="W8">
-        <v>-4.0910000000000002</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1146.577</v>
+        <v>94.3</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-231.14</v>
+        <v>-11.381</v>
       </c>
       <c r="AA8">
-        <v>97.906999999999996</v>
+        <v>5.4850000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>36799</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>102.696</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="D9">
-        <v>329.56099999999998</v>
+        <v>32.866999999999997</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>329.56099999999998</v>
+        <v>32.866999999999997</v>
       </c>
       <c r="G9">
-        <v>1501.68</v>
+        <v>481.79399999999998</v>
       </c>
       <c r="H9">
-        <v>32576.17</v>
+        <v>3780.7489999999998</v>
       </c>
       <c r="I9">
-        <v>25704.078000000001</v>
+        <v>2466.5970000000002</v>
       </c>
       <c r="J9">
-        <v>3211.221</v>
+        <v>1025.4359999999999</v>
       </c>
       <c r="K9">
-        <v>15.377000000000001</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25719.455000000002</v>
+        <v>2483.1289999999999</v>
       </c>
       <c r="O9">
-        <v>29413.768</v>
+        <v>3527.866</v>
       </c>
       <c r="P9">
-        <v>3226.598</v>
+        <v>1025.4359999999999</v>
       </c>
       <c r="Q9">
-        <v>76.94</v>
+        <v>21.408000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>36799</v>
       </c>
       <c r="S9">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3162.402</v>
+        <v>252.88300000000001</v>
       </c>
       <c r="U9">
-        <v>877.75800000000004</v>
+        <v>82.304000000000002</v>
       </c>
       <c r="V9">
-        <v>275.565</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="W9">
-        <v>-18.771000000000001</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1418.431</v>
+        <v>-103.184</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-178.86600000000001</v>
+        <v>-4.5549999999999997</v>
       </c>
       <c r="AA9">
-        <v>102.696</v>
+        <v>5.6139999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>36891</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>108.803</v>
+        <v>5.5220000000000002</v>
       </c>
       <c r="D10">
-        <v>340.77499999999998</v>
+        <v>33.994</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>340.77499999999998</v>
+        <v>33.994</v>
       </c>
       <c r="G10">
-        <v>1019.134</v>
+        <v>149.21799999999999</v>
       </c>
       <c r="H10">
-        <v>34389.235999999997</v>
+        <v>3656.3829999999998</v>
       </c>
       <c r="I10">
-        <v>27088.246999999999</v>
+        <v>2530.402</v>
       </c>
       <c r="J10">
-        <v>3206.45</v>
+        <v>567.81600000000003</v>
       </c>
       <c r="K10">
-        <v>7.6449999999999996</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>27170.892</v>
+        <v>2809.92</v>
       </c>
       <c r="O10">
-        <v>30989.133000000002</v>
+        <v>3398.53</v>
       </c>
       <c r="P10">
-        <v>3289.0949999999998</v>
+        <v>829.81600000000003</v>
       </c>
       <c r="Q10">
-        <v>-275.49400000000003</v>
+        <v>-20.41</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>36891</v>
       </c>
       <c r="S10">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3400.1030000000001</v>
+        <v>257.85300000000001</v>
       </c>
       <c r="U10">
-        <v>602.26400000000001</v>
+        <v>61.893999999999998</v>
       </c>
       <c r="V10">
-        <v>61.009</v>
+        <v>0.435</v>
       </c>
       <c r="W10">
-        <v>-32.856999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1575.0440000000001</v>
+        <v>-133.85599999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-285.74</v>
+        <v>-3.1539999999999999</v>
       </c>
       <c r="AA10">
-        <v>108.803</v>
+        <v>5.5220000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>36981</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>122.553</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="D11">
-        <v>363.839</v>
+        <v>34.918999999999997</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>363.839</v>
+        <v>34.918999999999997</v>
       </c>
       <c r="G11">
-        <v>1433.8109999999999</v>
+        <v>173.072</v>
       </c>
       <c r="H11">
-        <v>35082.904000000002</v>
+        <v>3759.1970000000001</v>
       </c>
       <c r="I11">
-        <v>26853.114000000001</v>
+        <v>2730.7089999999998</v>
       </c>
       <c r="J11">
-        <v>3503.143</v>
+        <v>732.81600000000003</v>
       </c>
       <c r="K11">
-        <v>126.172</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="M11">
-        <v>-3.3069999999999999</v>
+        <v>-60</v>
       </c>
       <c r="N11">
-        <v>27669.286</v>
+        <v>2743.9960000000001</v>
       </c>
       <c r="O11">
-        <v>31564.998</v>
+        <v>3493.38</v>
       </c>
       <c r="P11">
-        <v>4319.3149999999996</v>
+        <v>732.81600000000003</v>
       </c>
       <c r="Q11">
-        <v>-49.427</v>
+        <v>-7.4820000000000002</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>36981</v>
       </c>
       <c r="S11">
-        <v>2174</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3517.9059999999999</v>
+        <v>265.81700000000001</v>
       </c>
       <c r="U11">
-        <v>552.83699999999999</v>
+        <v>54.411999999999999</v>
       </c>
       <c r="V11">
-        <v>-103.22799999999999</v>
+        <v>-45.472999999999999</v>
       </c>
       <c r="W11">
-        <v>-7.7759999999999998</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>795.42399999999998</v>
+        <v>102.824</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-514.71600000000001</v>
+        <v>-2.5630000000000002</v>
       </c>
       <c r="AA11">
-        <v>122.553</v>
+        <v>5.3570000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37072</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>112.47</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="D12">
-        <v>352.68900000000002</v>
+        <v>36.356000000000002</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>352.68900000000002</v>
+        <v>36.356000000000002</v>
       </c>
       <c r="G12">
-        <v>1285.106</v>
+        <v>422.52300000000002</v>
       </c>
       <c r="H12">
-        <v>37312.741000000002</v>
+        <v>3972.1320000000001</v>
       </c>
       <c r="I12">
-        <v>28228.641</v>
+        <v>2810.6190000000001</v>
       </c>
       <c r="J12">
-        <v>4399.1260000000002</v>
+        <v>854.81</v>
       </c>
       <c r="K12">
-        <v>139.44300000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28618.083999999999</v>
+        <v>2824.9879999999998</v>
       </c>
       <c r="O12">
-        <v>33525.618000000002</v>
+        <v>3691.9290000000001</v>
       </c>
       <c r="P12">
-        <v>4788.5690000000004</v>
+        <v>854.81</v>
       </c>
       <c r="Q12">
-        <v>38.901000000000003</v>
+        <v>8.9730000000000008</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37072</v>
       </c>
       <c r="S12">
-        <v>2257</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3787.123</v>
+        <v>280.20299999999997</v>
       </c>
       <c r="U12">
-        <v>591.73800000000006</v>
+        <v>63.384999999999998</v>
       </c>
       <c r="V12">
-        <v>416.30500000000001</v>
+        <v>-10.661</v>
       </c>
       <c r="W12">
-        <v>-25.585999999999999</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1998.2090000000001</v>
+        <v>207.62100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-66.936999999999998</v>
+        <v>9.9079999999999995</v>
       </c>
       <c r="AA12">
-        <v>112.47</v>
+        <v>5.8609999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37164</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>111.748</v>
+        <v>6.5110000000000001</v>
       </c>
       <c r="D13">
-        <v>350.11399999999998</v>
+        <v>38.238</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>350.11399999999998</v>
+        <v>38.238</v>
       </c>
       <c r="G13">
-        <v>2670.5079999999998</v>
+        <v>521.16099999999994</v>
       </c>
       <c r="H13">
-        <v>40950.82</v>
+        <v>4155.799</v>
       </c>
       <c r="I13">
-        <v>31290.368999999999</v>
+        <v>2855.2779999999998</v>
       </c>
       <c r="J13">
-        <v>5196.9989999999998</v>
+        <v>979.31200000000001</v>
       </c>
       <c r="K13">
-        <v>11.688000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31302.057000000001</v>
+        <v>2865.1680000000001</v>
       </c>
       <c r="O13">
-        <v>37072.023000000001</v>
+        <v>3869.8670000000002</v>
       </c>
       <c r="P13">
-        <v>5208.6869999999999</v>
+        <v>979.31200000000001</v>
       </c>
       <c r="Q13">
-        <v>1342.989</v>
+        <v>-7.95</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37164</v>
       </c>
       <c r="S13">
-        <v>2321</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3878.797</v>
+        <v>285.93200000000002</v>
       </c>
       <c r="U13">
-        <v>1934.7270000000001</v>
+        <v>55.435000000000002</v>
       </c>
       <c r="V13">
-        <v>83.599000000000004</v>
+        <v>14.984999999999999</v>
       </c>
       <c r="W13">
-        <v>-26.323</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>3473.8449999999998</v>
+        <v>167.96</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-193.59399999999999</v>
+        <v>-6.3689999999999998</v>
       </c>
       <c r="AA13">
-        <v>111.748</v>
+        <v>6.5110000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37256</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>115.29900000000001</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="D14">
-        <v>363.03800000000001</v>
+        <v>41.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>363.03800000000001</v>
+        <v>41.14</v>
       </c>
       <c r="G14">
-        <v>1055.6579999999999</v>
+        <v>415.565</v>
       </c>
       <c r="H14">
-        <v>42112.762999999999</v>
+        <v>4197.6260000000002</v>
       </c>
       <c r="I14">
-        <v>32082.716</v>
+        <v>3238.1080000000002</v>
       </c>
       <c r="J14">
-        <v>5193.1319999999996</v>
+        <v>620.75199999999995</v>
       </c>
       <c r="K14">
-        <v>10.839</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32093.555</v>
+        <v>3271.0279999999998</v>
       </c>
       <c r="O14">
-        <v>37952.716</v>
+        <v>3917.2750000000001</v>
       </c>
       <c r="P14">
-        <v>5203.9709999999995</v>
+        <v>644.75199999999995</v>
       </c>
       <c r="Q14">
-        <v>-1126.8420000000001</v>
+        <v>54.421999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37256</v>
       </c>
       <c r="S14">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>4160.0469999999996</v>
+        <v>280.351</v>
       </c>
       <c r="U14">
-        <v>807.88499999999999</v>
+        <v>109.857</v>
       </c>
       <c r="V14">
-        <v>165.54499999999999</v>
+        <v>-102.932</v>
       </c>
       <c r="W14">
-        <v>-28.8</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>976.01499999999999</v>
+        <v>33.366</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-640.35699999999997</v>
+        <v>-168.40799999999999</v>
       </c>
       <c r="AA14">
-        <v>115.29900000000001</v>
+        <v>7.3330000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>37346</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>114.70399999999999</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="D15">
-        <v>374.62</v>
+        <v>42.505000000000003</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>374.62</v>
+        <v>42.505000000000003</v>
       </c>
       <c r="G15">
-        <v>2989.1529999999998</v>
+        <v>480.3</v>
       </c>
       <c r="H15">
-        <v>44345.896999999997</v>
+        <v>4268.1639999999998</v>
       </c>
       <c r="I15">
-        <v>33567.938000000002</v>
+        <v>3268.442</v>
       </c>
       <c r="J15">
-        <v>5391.7430000000004</v>
+        <v>324.90199999999999</v>
       </c>
       <c r="K15">
-        <v>9.5839999999999996</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1.389</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>33877.521999999997</v>
+        <v>3595.9580000000001</v>
       </c>
       <c r="O15">
-        <v>39851.862000000001</v>
+        <v>3929.6570000000002</v>
       </c>
       <c r="P15">
-        <v>5701.3270000000002</v>
+        <v>644.90200000000004</v>
       </c>
       <c r="Q15">
-        <v>954.33699999999999</v>
+        <v>-22.302</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>37346</v>
       </c>
       <c r="S15">
-        <v>2391</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4494.0349999999999</v>
+        <v>338.50700000000001</v>
       </c>
       <c r="U15">
-        <v>1762.222</v>
+        <v>87.555000000000007</v>
       </c>
       <c r="V15">
-        <v>17.393000000000001</v>
+        <v>49.749000000000002</v>
       </c>
       <c r="W15">
-        <v>-29.933</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2196.9969999999998</v>
+        <v>71.593999999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-218.28200000000001</v>
+        <v>-98.313999999999993</v>
       </c>
       <c r="AA15">
-        <v>114.70399999999999</v>
+        <v>7.4219999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>37437</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>120.83199999999999</v>
+        <v>5.5819999999999999</v>
       </c>
       <c r="D16">
-        <v>388.25099999999998</v>
+        <v>43.634</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>388.25099999999998</v>
+        <v>43.634</v>
       </c>
       <c r="G16">
-        <v>2700.6779999999999</v>
+        <v>589.899</v>
       </c>
       <c r="H16">
-        <v>46229.343000000001</v>
+        <v>4569.0469999999996</v>
       </c>
       <c r="I16">
-        <v>35034.478999999999</v>
+        <v>3367.8069999999998</v>
       </c>
       <c r="J16">
-        <v>5786.5860000000002</v>
+        <v>827.74699999999996</v>
       </c>
       <c r="K16">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>35242.298999999999</v>
+        <v>3376.9259999999999</v>
       </c>
       <c r="O16">
-        <v>41639.284</v>
+        <v>4206.2340000000004</v>
       </c>
       <c r="P16">
-        <v>5994.4059999999999</v>
+        <v>827.74699999999996</v>
       </c>
       <c r="Q16">
-        <v>-11.205</v>
+        <v>-6.2469999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>37437</v>
       </c>
       <c r="S16">
-        <v>2426</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>4590.0590000000002</v>
+        <v>362.81299999999999</v>
       </c>
       <c r="U16">
-        <v>1751.0170000000001</v>
+        <v>81.308000000000007</v>
       </c>
       <c r="V16">
-        <v>107.764</v>
+        <v>4.9569999999999999</v>
       </c>
       <c r="W16">
-        <v>-33.264000000000003</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1737.546</v>
+        <v>285.63099999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-386.38099999999997</v>
+        <v>19.306000000000001</v>
       </c>
       <c r="AA16">
-        <v>120.83199999999999</v>
+        <v>5.5819999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>37529</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>136.011</v>
+        <v>6.2960000000000003</v>
       </c>
       <c r="D17">
-        <v>427.14499999999998</v>
+        <v>47.35</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>427.14499999999998</v>
+        <v>47.35</v>
       </c>
       <c r="G17">
-        <v>2462.0590000000002</v>
+        <v>405.60500000000002</v>
       </c>
       <c r="H17">
-        <v>46680.92</v>
+        <v>4770.201</v>
       </c>
       <c r="I17">
-        <v>35607.406999999999</v>
+        <v>3435.31</v>
       </c>
       <c r="J17">
-        <v>5712.6850000000004</v>
+        <v>314.73700000000002</v>
       </c>
       <c r="K17">
-        <v>12.821</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>35620.228000000003</v>
+        <v>4063.788</v>
       </c>
       <c r="O17">
-        <v>41995.245000000003</v>
+        <v>4402.8980000000001</v>
       </c>
       <c r="P17">
-        <v>5725.5060000000003</v>
+        <v>937.73699999999997</v>
       </c>
       <c r="Q17">
-        <v>-378.28899999999999</v>
+        <v>-15.176</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>37529</v>
       </c>
       <c r="S17">
-        <v>2442</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4685.6750000000002</v>
+        <v>367.303</v>
       </c>
       <c r="U17">
-        <v>1372.7280000000001</v>
+        <v>66.132000000000005</v>
       </c>
       <c r="V17">
-        <v>156.59800000000001</v>
+        <v>-14.231</v>
       </c>
       <c r="W17">
-        <v>-33.4</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>274.75299999999999</v>
+        <v>173.089</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-292.70800000000003</v>
+        <v>-162.37899999999999</v>
       </c>
       <c r="AA17">
-        <v>136.011</v>
+        <v>6.2960000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>37621</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>115.459</v>
+        <v>7.101</v>
       </c>
       <c r="D18">
-        <v>402.613</v>
+        <v>47.68</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>402.613</v>
+        <v>47.68</v>
       </c>
       <c r="G18">
-        <v>1421.27</v>
+        <v>267.02</v>
       </c>
       <c r="H18">
-        <v>48350.201999999997</v>
+        <v>4854.6949999999997</v>
       </c>
       <c r="I18">
-        <v>37130.928999999996</v>
+        <v>3626.1489999999999</v>
       </c>
       <c r="J18">
-        <v>5707.4229999999998</v>
+        <v>521.73699999999997</v>
       </c>
       <c r="K18">
-        <v>29.126999999999999</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>37160.055999999997</v>
+        <v>3921.8780000000002</v>
       </c>
       <c r="O18">
-        <v>43571.735000000001</v>
+        <v>4482.5159999999996</v>
       </c>
       <c r="P18">
-        <v>5736.55</v>
+        <v>810.73699999999997</v>
       </c>
       <c r="Q18">
-        <v>-555.57799999999997</v>
+        <v>25.081</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>37621</v>
       </c>
       <c r="S18">
-        <v>2506</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>4778.4669999999996</v>
+        <v>372.17899999999997</v>
       </c>
       <c r="U18">
-        <v>817.15</v>
+        <v>91.212999999999994</v>
       </c>
       <c r="V18">
-        <v>214.608</v>
+        <v>43.488999999999997</v>
       </c>
       <c r="W18">
-        <v>-33.433999999999997</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1490.37</v>
+        <v>61.613</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-982.21400000000006</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="AA18">
-        <v>115.459</v>
+        <v>7.101</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>37711</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>115.91200000000001</v>
+        <v>11.635999999999999</v>
       </c>
       <c r="D19">
-        <v>411.05099999999999</v>
+        <v>47.588000000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>411.05099999999999</v>
+        <v>47.588000000000001</v>
       </c>
       <c r="G19">
-        <v>2494.9459999999999</v>
+        <v>385.50700000000001</v>
       </c>
       <c r="H19">
-        <v>51066.46</v>
+        <v>5055.0649999999996</v>
       </c>
       <c r="I19">
-        <v>39939.19</v>
+        <v>3721.2449999999999</v>
       </c>
       <c r="J19">
-        <v>4929.3760000000002</v>
+        <v>322.73700000000002</v>
       </c>
       <c r="K19">
-        <v>36.090000000000003</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-353.23899999999998</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>40400.28</v>
+        <v>4317.4880000000003</v>
       </c>
       <c r="O19">
-        <v>45991.463000000003</v>
+        <v>4672.3540000000003</v>
       </c>
       <c r="P19">
-        <v>5390.4660000000003</v>
+        <v>914.73699999999997</v>
       </c>
       <c r="Q19">
-        <v>827.38400000000001</v>
+        <v>-28.497</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>37711</v>
       </c>
       <c r="S19">
-        <v>2574</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>5074.9970000000003</v>
+        <v>382.71100000000001</v>
       </c>
       <c r="U19">
-        <v>1644.5340000000001</v>
+        <v>62.716000000000001</v>
       </c>
       <c r="V19">
-        <v>67.730999999999995</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="W19">
-        <v>-33.445</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2638.3110000000001</v>
+        <v>205.21799999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-847.49699999999996</v>
+        <v>7.06</v>
       </c>
       <c r="AA19">
-        <v>115.91200000000001</v>
+        <v>11.635999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>37802</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>131.345</v>
+        <v>10.839</v>
       </c>
       <c r="D20">
-        <v>438.29500000000002</v>
+        <v>56.298999999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>438.29500000000002</v>
+        <v>56.298999999999999</v>
       </c>
       <c r="G20">
-        <v>2287.8560000000002</v>
+        <v>233.08699999999999</v>
       </c>
       <c r="H20">
-        <v>53118.574999999997</v>
+        <v>5375.7960000000003</v>
       </c>
       <c r="I20">
-        <v>41887.565999999999</v>
+        <v>3834.2089999999998</v>
       </c>
       <c r="J20">
-        <v>4927.8770000000004</v>
+        <v>1038.7370000000001</v>
       </c>
       <c r="K20">
-        <v>132.078</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>42244.644</v>
+        <v>3839.6109999999999</v>
       </c>
       <c r="O20">
-        <v>47853.508999999998</v>
+        <v>4921.3019999999997</v>
       </c>
       <c r="P20">
-        <v>5284.9549999999999</v>
+        <v>1038.7370000000001</v>
       </c>
       <c r="Q20">
-        <v>-276.65499999999997</v>
+        <v>-12.676</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>37802</v>
       </c>
       <c r="S20">
-        <v>2728</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>5265.0659999999998</v>
+        <v>454.49400000000003</v>
       </c>
       <c r="U20">
-        <v>1367.8789999999999</v>
+        <v>50.04</v>
       </c>
       <c r="V20">
-        <v>225.58699999999999</v>
+        <v>403.03199999999998</v>
       </c>
       <c r="W20">
-        <v>-35.933</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1889.116</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-287.45299999999997</v>
+        <v>-31.494</v>
       </c>
       <c r="AA20">
-        <v>131.345</v>
+        <v>10.839</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>37894</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>134.84200000000001</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>454.12599999999998</v>
+        <v>55.761000000000003</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>454.12599999999998</v>
+        <v>55.761000000000003</v>
       </c>
       <c r="G21">
-        <v>2751.04</v>
+        <v>249.32900000000001</v>
       </c>
       <c r="H21">
-        <v>55375.22</v>
+        <v>5716.9279999999999</v>
       </c>
       <c r="I21">
-        <v>44342.944000000003</v>
+        <v>4185.5339999999997</v>
       </c>
       <c r="J21">
-        <v>4777.68</v>
+        <v>1018.27</v>
       </c>
       <c r="K21">
-        <v>134.375</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>44477.319000000003</v>
+        <v>4189.6710000000003</v>
       </c>
       <c r="O21">
-        <v>49991.046000000002</v>
+        <v>5245.7759999999998</v>
       </c>
       <c r="P21">
-        <v>4912.0550000000003</v>
+        <v>1018.27</v>
       </c>
       <c r="Q21">
-        <v>427.90100000000001</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>37894</v>
       </c>
       <c r="S21">
-        <v>2937</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>5384.174</v>
+        <v>471.15199999999999</v>
       </c>
       <c r="U21">
-        <v>1795.78</v>
+        <v>70.210999999999999</v>
       </c>
       <c r="V21">
-        <v>239.71700000000001</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>-36.988</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>2040.271</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-404.52100000000002</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>134.84200000000001</v>
+        <v>7.9210000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>37986</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>140.04599999999999</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>482.80500000000001</v>
+        <v>54.917999999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>482.80500000000001</v>
+        <v>54.917999999999999</v>
       </c>
       <c r="G22">
-        <v>1663.223</v>
+        <v>524.63400000000001</v>
       </c>
       <c r="H22">
-        <v>58981.285000000003</v>
+        <v>6002.9430000000002</v>
       </c>
       <c r="I22">
-        <v>47893.464999999997</v>
+        <v>4582.8959999999997</v>
       </c>
       <c r="J22">
-        <v>4426.8019999999997</v>
+        <v>570.77</v>
       </c>
       <c r="K22">
-        <v>139.684</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>48033.148999999998</v>
+        <v>4910.4750000000004</v>
       </c>
       <c r="O22">
-        <v>53275.601999999999</v>
+        <v>5522.5039999999999</v>
       </c>
       <c r="P22">
-        <v>4566.4859999999999</v>
+        <v>892.77</v>
       </c>
       <c r="Q22">
-        <v>-664.67</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>37986</v>
       </c>
       <c r="S22">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5705.683</v>
+        <v>480.43900000000002</v>
       </c>
       <c r="U22">
-        <v>1131.1099999999999</v>
+        <v>79.81</v>
       </c>
       <c r="V22">
-        <v>94.222999999999999</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-36.997999999999998</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>3392.8159999999998</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-2352.1390000000001</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>140.04599999999999</v>
+        <v>6.6539999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38077</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>157.495</v>
+        <v>9.8710000000000004</v>
       </c>
       <c r="D23">
-        <v>515.07299999999998</v>
+        <v>59.768000000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>515.07299999999998</v>
+        <v>59.768000000000001</v>
       </c>
       <c r="G23">
-        <v>2787.136</v>
+        <v>374.89499999999998</v>
       </c>
       <c r="H23">
-        <v>62102.51</v>
+        <v>6288.2650000000003</v>
       </c>
       <c r="I23">
-        <v>50935.254999999997</v>
+        <v>4728.6580000000004</v>
       </c>
       <c r="J23">
-        <v>3476.107</v>
+        <v>966.77</v>
       </c>
       <c r="K23">
-        <v>132.35300000000001</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-200.893</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>51817.608</v>
+        <v>4732.4859999999999</v>
       </c>
       <c r="O23">
-        <v>56117.785000000003</v>
+        <v>5731.7290000000003</v>
       </c>
       <c r="P23">
-        <v>4358.46</v>
+        <v>966.77</v>
       </c>
       <c r="Q23">
-        <v>815.03700000000003</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38077</v>
       </c>
       <c r="S23">
-        <v>3210</v>
+        <v>713</v>
       </c>
       <c r="T23">
-        <v>5984.7250000000004</v>
+        <v>556.53599999999994</v>
       </c>
       <c r="U23">
-        <v>1946.1469999999999</v>
+        <v>86.686999999999998</v>
       </c>
       <c r="V23">
-        <v>127.76900000000001</v>
+        <v>177.965</v>
       </c>
       <c r="W23">
-        <v>-38.646999999999998</v>
+        <v>-2.6059999999999999</v>
       </c>
       <c r="X23">
-        <v>2937.0509999999999</v>
+        <v>280.91199999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-880.29399999999998</v>
+        <v>-104.151</v>
       </c>
       <c r="AA23">
-        <v>157.495</v>
+        <v>9.8710000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38168</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>164.99700000000001</v>
+        <v>11.361000000000001</v>
       </c>
       <c r="D24">
-        <v>520.875</v>
+        <v>60.948</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>520.875</v>
+        <v>60.948</v>
       </c>
       <c r="G24">
-        <v>2975.4</v>
+        <v>784.82799999999997</v>
       </c>
       <c r="H24">
-        <v>64729.862999999998</v>
+        <v>6824.9780000000001</v>
       </c>
       <c r="I24">
-        <v>51161.243000000002</v>
+        <v>4896.5950000000003</v>
       </c>
       <c r="J24">
-        <v>4724.7539999999999</v>
+        <v>1329.77</v>
       </c>
       <c r="K24">
-        <v>989.90099999999995</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>52901.144</v>
+        <v>4902.0969999999998</v>
       </c>
       <c r="O24">
-        <v>58423.65</v>
+        <v>6258.4120000000003</v>
       </c>
       <c r="P24">
-        <v>6464.6549999999997</v>
+        <v>1329.77</v>
       </c>
       <c r="Q24">
-        <v>-382.09</v>
+        <v>-11.948</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38168</v>
       </c>
       <c r="S24">
-        <v>3349</v>
+        <v>762</v>
       </c>
       <c r="T24">
-        <v>6306.2129999999997</v>
+        <v>566.56600000000003</v>
       </c>
       <c r="U24">
-        <v>1564.057</v>
+        <v>74.739000000000004</v>
       </c>
       <c r="V24">
-        <v>101.36</v>
+        <v>53.338000000000001</v>
       </c>
       <c r="W24">
-        <v>-41.183999999999997</v>
+        <v>-3.016</v>
       </c>
       <c r="X24">
-        <v>2463.395</v>
+        <v>528.32100000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-201.321</v>
+        <v>-55.287999999999997</v>
       </c>
       <c r="AA24">
-        <v>164.99700000000001</v>
+        <v>11.361000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38260</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>171.81800000000001</v>
+        <v>12.07</v>
       </c>
       <c r="D25">
-        <v>539.875</v>
+        <v>65.087000000000003</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>539.875</v>
+        <v>65.087000000000003</v>
       </c>
       <c r="G25">
-        <v>2747.7829999999999</v>
+        <v>735.16899999999998</v>
       </c>
       <c r="H25">
-        <v>67993.547000000006</v>
+        <v>7116.8339999999998</v>
       </c>
       <c r="I25">
-        <v>55061.697</v>
+        <v>5148.4989999999998</v>
       </c>
       <c r="J25">
-        <v>5112.0649999999996</v>
+        <v>1298.27</v>
       </c>
       <c r="K25">
-        <v>230.834</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>55592.531000000003</v>
+        <v>5152.8140000000003</v>
       </c>
       <c r="O25">
-        <v>61549.048999999999</v>
+        <v>6525.9849999999997</v>
       </c>
       <c r="P25">
-        <v>5642.8990000000003</v>
+        <v>1298.27</v>
       </c>
       <c r="Q25">
-        <v>-177.09</v>
+        <v>6.7770000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38260</v>
       </c>
       <c r="S25">
-        <v>3420</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>6444.4979999999996</v>
+        <v>590.84900000000005</v>
       </c>
       <c r="U25">
-        <v>1386.9670000000001</v>
+        <v>81.516000000000005</v>
       </c>
       <c r="V25">
-        <v>316.39600000000002</v>
+        <v>84.427000000000007</v>
       </c>
       <c r="W25">
-        <v>-41.835000000000001</v>
+        <v>-3.0819999999999999</v>
       </c>
       <c r="X25">
-        <v>3034.3719999999998</v>
+        <v>232.18199999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1175.027</v>
+        <v>29.869</v>
       </c>
       <c r="AA25">
-        <v>171.81800000000001</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>38352</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>179.11799999999999</v>
+        <v>13.196999999999999</v>
       </c>
       <c r="D26">
-        <v>588.95899999999995</v>
+        <v>73.194999999999993</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>588.95899999999995</v>
+        <v>73.194999999999993</v>
       </c>
       <c r="G26">
-        <v>3043.567</v>
+        <v>778.74300000000005</v>
       </c>
       <c r="H26">
-        <v>73277.771999999997</v>
+        <v>7422.9970000000003</v>
       </c>
       <c r="I26">
-        <v>58602.381000000001</v>
+        <v>5604.5820000000003</v>
       </c>
       <c r="J26">
-        <v>6711.308</v>
+        <v>560.27</v>
       </c>
       <c r="K26">
-        <v>119.217</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>58721.597999999998</v>
+        <v>6176.0820000000003</v>
       </c>
       <c r="O26">
-        <v>66369.119999999995</v>
+        <v>6821.3130000000001</v>
       </c>
       <c r="P26">
-        <v>6830.5249999999996</v>
+        <v>1131.77</v>
       </c>
       <c r="Q26">
-        <v>720.755</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>38352</v>
       </c>
       <c r="S26">
-        <v>3566</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6908.652</v>
+        <v>601.68399999999997</v>
       </c>
       <c r="U26">
-        <v>2107.7220000000002</v>
+        <v>87.986999999999995</v>
       </c>
       <c r="V26">
-        <v>306.95999999999998</v>
+        <v>74.814999999999998</v>
       </c>
       <c r="W26">
-        <v>-41.874000000000002</v>
+        <v>-3.476</v>
       </c>
       <c r="X26">
-        <v>5019.93</v>
+        <v>287.15600000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-2296.4830000000002</v>
+        <v>-22.704000000000001</v>
       </c>
       <c r="AA26">
-        <v>179.11799999999999</v>
+        <v>13.196999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>38442</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>176.774</v>
+        <v>13.792999999999999</v>
       </c>
       <c r="D27">
-        <v>592.05600000000004</v>
+        <v>74.709000000000003</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>592.05600000000004</v>
+        <v>74.709000000000003</v>
       </c>
       <c r="G27">
-        <v>3889.6660000000002</v>
+        <v>761.00400000000002</v>
       </c>
       <c r="H27">
-        <v>76504.350999999995</v>
+        <v>7632.14</v>
       </c>
       <c r="I27">
-        <v>61207.248</v>
+        <v>5929.76</v>
       </c>
       <c r="J27">
-        <v>6150.2860000000001</v>
+        <v>389.77</v>
       </c>
       <c r="K27">
-        <v>115.85299999999999</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="M27">
-        <v>-500.64699999999999</v>
+        <v>-75</v>
       </c>
       <c r="N27">
-        <v>62273.101000000002</v>
+        <v>6522.9129999999996</v>
       </c>
       <c r="O27">
-        <v>69415.606</v>
+        <v>6964.7030000000004</v>
       </c>
       <c r="P27">
-        <v>7216.1390000000001</v>
+        <v>976.77</v>
       </c>
       <c r="Q27">
-        <v>648.66300000000001</v>
+        <v>8.4339999999999993</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>38442</v>
       </c>
       <c r="S27">
-        <v>3715</v>
+        <v>818</v>
       </c>
       <c r="T27">
-        <v>7088.7449999999999</v>
+        <v>667.43700000000001</v>
       </c>
       <c r="U27">
-        <v>2756.3850000000002</v>
+        <v>96.421000000000006</v>
       </c>
       <c r="V27">
-        <v>258.43299999999999</v>
+        <v>105.919</v>
       </c>
       <c r="W27">
-        <v>-40.335999999999999</v>
+        <v>-3.6160000000000001</v>
       </c>
       <c r="X27">
-        <v>2985.0630000000001</v>
+        <v>217.09899999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-701.74099999999999</v>
+        <v>-119.613</v>
       </c>
       <c r="AA27">
-        <v>176.774</v>
+        <v>13.792999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>38533</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>186.6</v>
+        <v>14.616</v>
       </c>
       <c r="D28">
-        <v>617.39800000000002</v>
+        <v>79.233999999999995</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>617.39800000000002</v>
+        <v>79.233999999999995</v>
       </c>
       <c r="G28">
-        <v>3646.1149999999998</v>
+        <v>761.48599999999999</v>
       </c>
       <c r="H28">
-        <v>80978.231</v>
+        <v>8441.5859999999993</v>
       </c>
       <c r="I28">
-        <v>63293.705999999998</v>
+        <v>6213.701</v>
       </c>
       <c r="J28">
-        <v>8593.2790000000005</v>
+        <v>465.27</v>
       </c>
       <c r="K28">
-        <v>165.655</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>64109.360999999997</v>
+        <v>7232.8209999999999</v>
       </c>
       <c r="O28">
-        <v>73718.148000000001</v>
+        <v>7760.0529999999999</v>
       </c>
       <c r="P28">
-        <v>9408.9339999999993</v>
+        <v>1476.77</v>
       </c>
       <c r="Q28">
-        <v>-461.26</v>
+        <v>23.074999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>38533</v>
       </c>
       <c r="S28">
-        <v>3881</v>
+        <v>863</v>
       </c>
       <c r="T28">
-        <v>7260.0829999999996</v>
+        <v>681.53300000000002</v>
       </c>
       <c r="U28">
-        <v>2295.125</v>
+        <v>119.496</v>
       </c>
       <c r="V28">
-        <v>244.09</v>
+        <v>30.745000000000001</v>
       </c>
       <c r="W28">
-        <v>-41.536999999999999</v>
+        <v>-4.3140000000000001</v>
       </c>
       <c r="X28">
-        <v>4248.5739999999996</v>
+        <v>780.524</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-906.41</v>
+        <v>-414.53300000000002</v>
       </c>
       <c r="AA28">
-        <v>186.6</v>
+        <v>14.616</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>38625</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>200.00899999999999</v>
+        <v>16.155999999999999</v>
       </c>
       <c r="D29">
-        <v>660.173</v>
+        <v>83.994</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>660.173</v>
+        <v>83.994</v>
       </c>
       <c r="G29">
-        <v>4580.6890000000003</v>
+        <v>711.77099999999996</v>
       </c>
       <c r="H29">
-        <v>84320.096000000005</v>
+        <v>8851.9320000000007</v>
       </c>
       <c r="I29">
-        <v>65436.322999999997</v>
+        <v>6484.5219999999999</v>
       </c>
       <c r="J29">
-        <v>9571.2929999999997</v>
+        <v>1582.27</v>
       </c>
       <c r="K29">
-        <v>468.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>66304.687999999995</v>
+        <v>6492.15</v>
       </c>
       <c r="O29">
-        <v>76892.149999999994</v>
+        <v>8133.1869999999999</v>
       </c>
       <c r="P29">
-        <v>10439.657999999999</v>
+        <v>1582.27</v>
       </c>
       <c r="Q29">
-        <v>386.47399999999999</v>
+        <v>6.7290000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>38625</v>
       </c>
       <c r="S29">
-        <v>3939</v>
+        <v>857</v>
       </c>
       <c r="T29">
-        <v>7427.9459999999999</v>
+        <v>718.745</v>
       </c>
       <c r="U29">
-        <v>2681.5990000000002</v>
+        <v>126.22499999999999</v>
       </c>
       <c r="V29">
-        <v>290.15499999999997</v>
+        <v>69.843999999999994</v>
       </c>
       <c r="W29">
-        <v>-41.633000000000003</v>
+        <v>-4.9219999999999997</v>
       </c>
       <c r="X29">
-        <v>3119.6030000000001</v>
+        <v>395.94799999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-675.19100000000003</v>
+        <v>-159.018</v>
       </c>
       <c r="AA29">
-        <v>200.00899999999999</v>
+        <v>16.155999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>38717</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>194.27699999999999</v>
+        <v>16.262</v>
       </c>
       <c r="D30">
-        <v>682.11599999999999</v>
+        <v>84.626000000000005</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>682.11599999999999</v>
+        <v>84.626000000000005</v>
       </c>
       <c r="G30">
-        <v>3119.5859999999998</v>
+        <v>608.62699999999995</v>
       </c>
       <c r="H30">
-        <v>87780.506999999998</v>
+        <v>9319.91</v>
       </c>
       <c r="I30">
-        <v>68918.707999999999</v>
+        <v>7019.0479999999998</v>
       </c>
       <c r="J30">
-        <v>9971.8070000000007</v>
+        <v>260.27</v>
       </c>
       <c r="K30">
-        <v>115.88200000000001</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>69034.59</v>
+        <v>8252.0480000000007</v>
       </c>
       <c r="O30">
-        <v>79962.206000000006</v>
+        <v>8587.2000000000007</v>
       </c>
       <c r="P30">
-        <v>10087.689</v>
+        <v>1493.27</v>
       </c>
       <c r="Q30">
-        <v>-384.57799999999997</v>
+        <v>15.537000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>38717</v>
       </c>
       <c r="S30">
-        <v>4025</v>
+        <v>903</v>
       </c>
       <c r="T30">
-        <v>7818.3010000000004</v>
+        <v>732.71</v>
       </c>
       <c r="U30">
-        <v>2297.0210000000002</v>
+        <v>141.762</v>
       </c>
       <c r="V30">
-        <v>219.46</v>
+        <v>89.903999999999996</v>
       </c>
       <c r="W30">
-        <v>-42.082999999999998</v>
+        <v>-5.0229999999999997</v>
       </c>
       <c r="X30">
-        <v>3308.0149999999999</v>
+        <v>442.11399999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-1131.6559999999999</v>
+        <v>-138.44</v>
       </c>
       <c r="AA30">
-        <v>194.27699999999999</v>
+        <v>16.262</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>38807</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>199.083</v>
+        <v>17.22</v>
       </c>
       <c r="D31">
-        <v>707.86</v>
+        <v>90.143000000000001</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>707.86</v>
+        <v>90.143000000000001</v>
       </c>
       <c r="G31">
-        <v>5792.13</v>
+        <v>595.85</v>
       </c>
       <c r="H31">
-        <v>90223.508000000002</v>
+        <v>9578.7630000000008</v>
       </c>
       <c r="I31">
-        <v>71255.072</v>
+        <v>8053.6390000000001</v>
       </c>
       <c r="J31">
-        <v>8022.3270000000002</v>
+        <v>230.27</v>
       </c>
       <c r="K31">
-        <v>24.321999999999999</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-100</v>
+        <v>-750</v>
       </c>
       <c r="M31">
-        <v>-650</v>
+        <v>-40</v>
       </c>
       <c r="N31">
-        <v>73429.394</v>
+        <v>8526.6389999999992</v>
       </c>
       <c r="O31">
-        <v>82386.97</v>
+        <v>8827.8889999999992</v>
       </c>
       <c r="P31">
-        <v>10196.648999999999</v>
+        <v>703.27</v>
       </c>
       <c r="Q31">
-        <v>1542.91</v>
+        <v>19.734999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>38807</v>
       </c>
       <c r="S31">
-        <v>4060</v>
+        <v>919</v>
       </c>
       <c r="T31">
-        <v>7836.5379999999996</v>
+        <v>750.87400000000002</v>
       </c>
       <c r="U31">
-        <v>3839.931</v>
+        <v>161.49700000000001</v>
       </c>
       <c r="V31">
-        <v>268.71699999999998</v>
+        <v>102.205</v>
       </c>
       <c r="W31">
-        <v>-40.223999999999997</v>
+        <v>-5.0510000000000002</v>
       </c>
       <c r="X31">
-        <v>2243.404</v>
+        <v>-135.779</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2072.6129999999998</v>
+        <v>-198.58500000000001</v>
       </c>
       <c r="AA31">
-        <v>199.083</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>38898</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>209.78100000000001</v>
+        <v>17.260999999999999</v>
       </c>
       <c r="D32">
-        <v>724.74400000000003</v>
+        <v>91.007999999999996</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>724.74400000000003</v>
+        <v>91.007999999999996</v>
       </c>
       <c r="G32">
-        <v>5573.8190000000004</v>
+        <v>574.053</v>
       </c>
       <c r="H32">
-        <v>93851.46</v>
+        <v>10380.347</v>
       </c>
       <c r="I32">
-        <v>72771.95</v>
+        <v>7632.9750000000004</v>
       </c>
       <c r="J32">
-        <v>9772.85</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="K32">
-        <v>613.22699999999998</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>74935.176999999996</v>
+        <v>9318.9750000000004</v>
       </c>
       <c r="O32">
-        <v>85575.486999999994</v>
+        <v>9613.5069999999996</v>
       </c>
       <c r="P32">
-        <v>11936.076999999999</v>
+        <v>1816.27</v>
       </c>
       <c r="Q32">
-        <v>153.29499999999999</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>38898</v>
       </c>
       <c r="S32">
-        <v>4242</v>
+        <v>970</v>
       </c>
       <c r="T32">
-        <v>8275.973</v>
+        <v>766.84</v>
       </c>
       <c r="U32">
-        <v>3993.2260000000001</v>
+        <v>166.03200000000001</v>
       </c>
       <c r="V32">
-        <v>77.265000000000001</v>
+        <v>156.32900000000001</v>
       </c>
       <c r="W32">
-        <v>-41.86</v>
+        <v>-5.0730000000000004</v>
       </c>
       <c r="X32">
-        <v>3479.2089999999998</v>
+        <v>687.38099999999997</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>91.587000000000003</v>
+        <v>-209.57</v>
       </c>
       <c r="AA32">
-        <v>209.78100000000001</v>
+        <v>17.260999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>38990</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>213.54599999999999</v>
+        <v>17.402999999999999</v>
       </c>
       <c r="D33">
-        <v>750.19600000000003</v>
+        <v>92.564999999999998</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>750.19600000000003</v>
+        <v>92.564999999999998</v>
       </c>
       <c r="G33">
-        <v>4771.7179999999998</v>
+        <v>542.65700000000004</v>
       </c>
       <c r="H33">
-        <v>96094.221999999994</v>
+        <v>10713.224</v>
       </c>
       <c r="I33">
-        <v>74759.251999999993</v>
+        <v>7858.4840000000004</v>
       </c>
       <c r="J33">
-        <v>10073.981</v>
+        <v>230.27</v>
       </c>
       <c r="K33">
-        <v>134.303</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>76092.951000000001</v>
+        <v>9590.4840000000004</v>
       </c>
       <c r="O33">
-        <v>87427.535000000003</v>
+        <v>9930.3880000000008</v>
       </c>
       <c r="P33">
-        <v>11407.68</v>
+        <v>1962.27</v>
       </c>
       <c r="Q33">
-        <v>-979.58100000000002</v>
+        <v>-3.2709999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>38990</v>
       </c>
       <c r="S33">
-        <v>4340</v>
+        <v>981</v>
       </c>
       <c r="T33">
-        <v>8666.6869999999999</v>
+        <v>782.83600000000001</v>
       </c>
       <c r="U33">
-        <v>3013.645</v>
+        <v>162.761</v>
       </c>
       <c r="V33">
-        <v>800.06200000000001</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="W33">
-        <v>-46.972999999999999</v>
+        <v>-5.79</v>
       </c>
       <c r="X33">
-        <v>1593.66</v>
+        <v>367.03100000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>224.51599999999999</v>
+        <v>-141.68</v>
       </c>
       <c r="AA33">
-        <v>213.54599999999999</v>
+        <v>17.402999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39082</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>231.41800000000001</v>
+        <v>17.288</v>
       </c>
       <c r="D34">
-        <v>785.66099999999994</v>
+        <v>104.42100000000001</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>785.66099999999994</v>
+        <v>104.42100000000001</v>
       </c>
       <c r="G34">
-        <v>3243.8519999999999</v>
+        <v>462.63200000000001</v>
       </c>
       <c r="H34">
-        <v>99205.203999999998</v>
+        <v>11634.534</v>
       </c>
       <c r="I34">
-        <v>79063.236000000004</v>
+        <v>8920.7209999999995</v>
       </c>
       <c r="J34">
-        <v>10373.906999999999</v>
+        <v>774.41800000000001</v>
       </c>
       <c r="K34">
-        <v>127.47499999999999</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>79190.710999999996</v>
+        <v>9800.4040000000005</v>
       </c>
       <c r="O34">
-        <v>90527.426999999996</v>
+        <v>10697.759</v>
       </c>
       <c r="P34">
-        <v>10501.382</v>
+        <v>1654.1010000000001</v>
       </c>
       <c r="Q34">
-        <v>-202.48599999999999</v>
+        <v>102.435</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39082</v>
       </c>
       <c r="S34">
-        <v>4480</v>
+        <v>1112</v>
       </c>
       <c r="T34">
-        <v>8677.777</v>
+        <v>936.77499999999998</v>
       </c>
       <c r="U34">
-        <v>2811.1590000000001</v>
+        <v>265.19600000000003</v>
       </c>
       <c r="V34">
-        <v>-34.840000000000003</v>
+        <v>106.425</v>
       </c>
       <c r="W34">
-        <v>-46.511000000000003</v>
+        <v>-6.399</v>
       </c>
       <c r="X34">
-        <v>3148.68</v>
+        <v>248.345</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>141.434</v>
+        <v>-120.157</v>
       </c>
       <c r="AA34">
-        <v>231.41800000000001</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39172</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>226.59100000000001</v>
+        <v>2.976</v>
       </c>
       <c r="D35">
-        <v>793.15599999999995</v>
+        <v>105.545</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>793.15599999999995</v>
+        <v>105.545</v>
       </c>
       <c r="G35">
-        <v>5196.5550000000003</v>
+        <v>583.56100000000004</v>
       </c>
       <c r="H35">
-        <v>101847.228</v>
+        <v>11698.246999999999</v>
       </c>
       <c r="I35">
-        <v>81612.116999999998</v>
+        <v>9460.5939999999991</v>
       </c>
       <c r="J35">
-        <v>7224.442</v>
+        <v>642.16999999999996</v>
       </c>
       <c r="K35">
-        <v>30.366</v>
+        <v>27.550999999999998</v>
       </c>
       <c r="L35">
-        <v>-100</v>
+        <v>-453.11700000000002</v>
       </c>
       <c r="M35">
-        <v>-1100</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="N35">
-        <v>84092.482999999993</v>
+        <v>10018.945</v>
       </c>
       <c r="O35">
-        <v>92801.244000000006</v>
+        <v>10768.358</v>
       </c>
       <c r="P35">
-        <v>10392.36</v>
+        <v>1200.521</v>
       </c>
       <c r="Q35">
-        <v>882.23699999999997</v>
+        <v>-29.39</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39172</v>
       </c>
       <c r="S35">
-        <v>4612</v>
+        <v>1090</v>
       </c>
       <c r="T35">
-        <v>9045.9840000000004</v>
+        <v>929.88900000000001</v>
       </c>
       <c r="U35">
-        <v>3693.3960000000002</v>
+        <v>235.80600000000001</v>
       </c>
       <c r="V35">
-        <v>240.24199999999999</v>
+        <v>-44.173000000000002</v>
       </c>
       <c r="W35">
-        <v>-43.502000000000002</v>
+        <v>-6.4649999999999999</v>
       </c>
       <c r="X35">
-        <v>1859.8689999999999</v>
+        <v>82.388000000000005</v>
       </c>
       <c r="Y35">
-        <v>687.55200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>195.85499999999999</v>
+        <v>44.267000000000003</v>
       </c>
       <c r="AA35">
-        <v>226.59100000000001</v>
+        <v>2.976</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39263</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>222.56399999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>798.17600000000004</v>
+        <v>94.254000000000005</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>798.17600000000004</v>
+        <v>94.254000000000005</v>
       </c>
       <c r="G36">
-        <v>3878.3620000000001</v>
+        <v>280.06099999999998</v>
       </c>
       <c r="H36">
-        <v>105699.636</v>
+        <v>12897.998</v>
       </c>
       <c r="I36">
-        <v>83431.082999999999</v>
+        <v>9971.2279999999992</v>
       </c>
       <c r="J36">
-        <v>9024.9470000000001</v>
+        <v>1872.8910000000001</v>
       </c>
       <c r="K36">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>85493.502999999997</v>
+        <v>9971.2279999999992</v>
       </c>
       <c r="O36">
-        <v>96479.993000000002</v>
+        <v>11958.842000000001</v>
       </c>
       <c r="P36">
-        <v>11879.698</v>
+        <v>1872.8910000000001</v>
       </c>
       <c r="Q36">
-        <v>-1473.3230000000001</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39263</v>
       </c>
       <c r="S36">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>9219.643</v>
+        <v>939.15599999999995</v>
       </c>
       <c r="U36">
-        <v>2220.0729999999999</v>
+        <v>220.89099999999999</v>
       </c>
       <c r="V36">
-        <v>388.04399999999998</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>-45.222000000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>3131.9569999999999</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>792.33100000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-5.7770000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>222.56399999999999</v>
+        <v>19.782</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>234.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>820.48099999999999</v>
+        <v>240.327</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>820.48099999999999</v>
+        <v>240.327</v>
       </c>
       <c r="G37">
-        <v>3877.3359999999998</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>111028.735</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>85720.519</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>11125.275</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>813.90099999999995</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>87584.42</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>101597.52899999999</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>13767.433000000001</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-38.472999999999999</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>4880</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>9431.2060000000001</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>2181.6</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1173.9179999999999</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>-45.231000000000002</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>4105.7830000000004</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>778.25699999999995</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1146.79</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>234.84399999999999</v>
+        <v>80.718000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>246.33</v>
+        <v>97.471000000000004</v>
       </c>
       <c r="D38">
-        <v>867.88400000000001</v>
+        <v>274.08199999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>867.88400000000001</v>
+        <v>274.08199999999999</v>
       </c>
       <c r="G38">
-        <v>2104.4209999999998</v>
+        <v>500.66899999999998</v>
       </c>
       <c r="H38">
-        <v>116263.63400000001</v>
+        <v>19940.55</v>
       </c>
       <c r="I38">
-        <v>90133.245999999999</v>
+        <v>17182.484</v>
       </c>
       <c r="J38">
-        <v>13475.603999999999</v>
+        <v>196.398</v>
       </c>
       <c r="K38">
-        <v>827.05100000000004</v>
+        <v>987.86599999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>90960.297000000006</v>
+        <v>18185.650000000001</v>
       </c>
       <c r="O38">
-        <v>106412.527</v>
+        <v>18544.643</v>
       </c>
       <c r="P38">
-        <v>15114.196</v>
+        <v>1184.2639999999999</v>
       </c>
       <c r="Q38">
-        <v>-482.04300000000001</v>
+        <v>1.623</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4812</v>
+        <v>1366</v>
       </c>
       <c r="T38">
-        <v>9851.107</v>
+        <v>1395.9069999999999</v>
       </c>
       <c r="U38">
-        <v>1699.557</v>
+        <v>178.553</v>
       </c>
       <c r="V38">
-        <v>-863.69299999999998</v>
+        <v>5.7320000000000002</v>
       </c>
       <c r="W38">
-        <v>-43.204000000000001</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>5887.03</v>
+        <v>373.923</v>
       </c>
       <c r="Y38">
-        <v>811.54100000000005</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-954.58799999999997</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AA38">
-        <v>246.33</v>
+        <v>97.471000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>218.68600000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D39">
-        <v>853.80600000000004</v>
+        <v>223.233</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>853.80600000000004</v>
+        <v>223.233</v>
       </c>
       <c r="G39">
-        <v>4715.9650000000001</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>123914.929</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>93692.339000000007</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>15672.732</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>50.533000000000001</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-800</v>
+        <v>-368.61099999999999</v>
       </c>
       <c r="M39">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>96092.872000000003</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>113555.164</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>18969.036</v>
+        <v>1184.2639999999999</v>
       </c>
       <c r="Q39">
-        <v>2249.8209999999999</v>
+        <v>25.135999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>4893</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>10359.764999999999</v>
+        <v>1395.9069999999999</v>
       </c>
       <c r="U39">
-        <v>3949.3780000000002</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>231.553</v>
+        <v>167.315</v>
       </c>
       <c r="W39">
-        <v>-46.295000000000002</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>7546.1469999999999</v>
+        <v>48.98</v>
       </c>
       <c r="Y39">
-        <v>895.77099999999996</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-184.429</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA39">
-        <v>218.68600000000001</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>256.76799999999997</v>
+        <v>60.546999999999997</v>
       </c>
       <c r="D40">
-        <v>887.86400000000003</v>
+        <v>223.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>887.86400000000003</v>
+        <v>223.4</v>
       </c>
       <c r="G40">
-        <v>3863.248</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>128303.887</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>98533.960999999996</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>15678.205</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>25.114999999999998</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>100059.076</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>117727.959</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>18141.561000000002</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>-850.20799999999997</v>
+        <v>232.227</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>5197</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>10575.928</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>3099.17</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>112.59</v>
+        <v>5.383</v>
       </c>
       <c r="W40">
-        <v>-49.892000000000003</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3920.0790000000002</v>
+        <v>73.55</v>
       </c>
       <c r="Y40">
-        <v>938.24099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-153.43700000000001</v>
+        <v>-0.97899999999999998</v>
       </c>
       <c r="AA40">
-        <v>256.76799999999997</v>
+        <v>60.546999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>293.137</v>
+        <v>69.989000000000004</v>
       </c>
       <c r="D41">
-        <v>972.72500000000002</v>
+        <v>250.768</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>972.72500000000002</v>
+        <v>250.768</v>
       </c>
       <c r="G41">
-        <v>4188.4210000000003</v>
+        <v>2955.5160000000001</v>
       </c>
       <c r="H41">
-        <v>133225.77100000001</v>
+        <v>21954.067999999999</v>
       </c>
       <c r="I41">
-        <v>104403.376</v>
+        <v>18964.762999999999</v>
       </c>
       <c r="J41">
-        <v>15178.83</v>
+        <v>694.55399999999997</v>
       </c>
       <c r="K41">
-        <v>34.009</v>
+        <v>19.591000000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>104537.38499999999</v>
+        <v>18984.353999999999</v>
       </c>
       <c r="O41">
-        <v>121881.162</v>
+        <v>19933.329000000002</v>
       </c>
       <c r="P41">
-        <v>16282.585999999999</v>
+        <v>714.14499999999998</v>
       </c>
       <c r="Q41">
-        <v>591.97900000000004</v>
+        <v>2025.36</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>5294</v>
+        <v>1455</v>
       </c>
       <c r="T41">
-        <v>11344.609</v>
+        <v>2020.739</v>
       </c>
       <c r="U41">
-        <v>3691.1489999999999</v>
+        <v>2461.2759999999998</v>
       </c>
       <c r="V41">
-        <v>74.364999999999995</v>
+        <v>-28.994</v>
       </c>
       <c r="W41">
-        <v>-49.872999999999998</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>4419.4759999999997</v>
+        <v>3392.8229999999999</v>
       </c>
       <c r="Y41">
-        <v>969.74699999999996</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>654.56500000000005</v>
+        <v>-533.31600000000003</v>
       </c>
       <c r="AA41">
-        <v>293.137</v>
+        <v>66.394999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>77.165000000000006</v>
+      </c>
+      <c r="D42">
+        <v>268.44499999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>268.44499999999999</v>
+      </c>
+      <c r="G42">
+        <v>1794.4949999999999</v>
+      </c>
+      <c r="H42">
+        <v>22377.633000000002</v>
+      </c>
+      <c r="I42">
+        <v>19235.749</v>
+      </c>
+      <c r="J42">
+        <v>693.84500000000003</v>
+      </c>
+      <c r="K42">
+        <v>18.347000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>19255.696</v>
+      </c>
+      <c r="O42">
+        <v>20152.877</v>
+      </c>
+      <c r="P42">
+        <v>712.19200000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-933.20100000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1502</v>
+      </c>
+      <c r="T42">
+        <v>2224.7559999999999</v>
+      </c>
+      <c r="U42">
+        <v>1528.075</v>
+      </c>
+      <c r="V42">
+        <v>50.564</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>398.33499999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-585.64800000000002</v>
+      </c>
+      <c r="AA42">
+        <v>75.966999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>88.772000000000006</v>
+      </c>
+      <c r="D43">
+        <v>278.90100000000001</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>278.90100000000001</v>
+      </c>
+      <c r="G43">
+        <v>2887.018</v>
+      </c>
+      <c r="H43">
+        <v>23575.922999999999</v>
+      </c>
+      <c r="I43">
+        <v>20028.526000000002</v>
+      </c>
+      <c r="J43">
+        <v>990.76700000000005</v>
+      </c>
+      <c r="K43">
+        <v>11.590999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.4209999999999998</v>
+      </c>
+      <c r="N43">
+        <v>20040.116999999998</v>
+      </c>
+      <c r="O43">
+        <v>21257.035</v>
+      </c>
+      <c r="P43">
+        <v>1002.3579999999999</v>
+      </c>
+      <c r="Q43">
+        <v>741.90200000000004</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>1553</v>
+      </c>
+      <c r="T43">
+        <v>2318.8879999999999</v>
+      </c>
+      <c r="U43">
+        <v>2269.9769999999999</v>
+      </c>
+      <c r="V43">
+        <v>60.265999999999998</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1104.749</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-156.48599999999999</v>
+      </c>
+      <c r="AA43">
+        <v>88.772000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>84.831999999999994</v>
+      </c>
+      <c r="D44">
+        <v>270.99799999999999</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>270.99799999999999</v>
+      </c>
+      <c r="G44">
+        <v>1349.854</v>
+      </c>
+      <c r="H44">
+        <v>23797.773000000001</v>
+      </c>
+      <c r="I44">
+        <v>19939.848000000002</v>
+      </c>
+      <c r="J44">
+        <v>1189.817</v>
+      </c>
+      <c r="K44">
+        <v>13.773</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>19953.620999999999</v>
+      </c>
+      <c r="O44">
+        <v>21397.656999999999</v>
+      </c>
+      <c r="P44">
+        <v>1203.5899999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-1479.21</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>1681</v>
+      </c>
+      <c r="T44">
+        <v>2400.116</v>
+      </c>
+      <c r="U44">
+        <v>790.76700000000005</v>
+      </c>
+      <c r="V44">
+        <v>36.052</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>114.92</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-782.27800000000002</v>
+      </c>
+      <c r="AA44">
+        <v>84.831999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>87.793000000000006</v>
+      </c>
+      <c r="D45">
+        <v>284.80200000000002</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>284.80200000000002</v>
+      </c>
+      <c r="G45">
+        <v>2895.7370000000001</v>
+      </c>
+      <c r="H45">
+        <v>26778.366999999998</v>
+      </c>
+      <c r="I45">
+        <v>21770.04</v>
+      </c>
+      <c r="J45">
+        <v>2188.277</v>
+      </c>
+      <c r="K45">
+        <v>21.637</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>21791.677</v>
+      </c>
+      <c r="O45">
+        <v>24289.248</v>
+      </c>
+      <c r="P45">
+        <v>2209.9140000000002</v>
+      </c>
+      <c r="Q45">
+        <v>1273.4780000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>1829</v>
+      </c>
+      <c r="T45">
+        <v>2489.1190000000001</v>
+      </c>
+      <c r="U45">
+        <v>2064.2449999999999</v>
+      </c>
+      <c r="V45">
+        <v>6.9790000000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>2847.8649999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-292.38200000000001</v>
+      </c>
+      <c r="AA45">
+        <v>87.793000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>90.691000000000003</v>
+      </c>
+      <c r="D46">
+        <v>299.77199999999999</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>299.77199999999999</v>
+      </c>
+      <c r="G46">
+        <v>1188.7049999999999</v>
+      </c>
+      <c r="H46">
+        <v>27791.800999999999</v>
+      </c>
+      <c r="I46">
+        <v>22459.258999999998</v>
+      </c>
+      <c r="J46">
+        <v>2263.259</v>
+      </c>
+      <c r="K46">
+        <v>19.05</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>22544.02</v>
+      </c>
+      <c r="O46">
+        <v>25196.778999999999</v>
+      </c>
+      <c r="P46">
+        <v>2348.02</v>
+      </c>
+      <c r="Q46">
+        <v>-1433.4649999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1821</v>
+      </c>
+      <c r="T46">
+        <v>2595.0219999999999</v>
+      </c>
+      <c r="U46">
+        <v>630.78</v>
+      </c>
+      <c r="V46">
+        <v>-38.768999999999998</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>796.55899999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-605.57600000000002</v>
+      </c>
+      <c r="AA46">
+        <v>90.691000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>91.757999999999996</v>
+      </c>
+      <c r="D47">
+        <v>301.601</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>301.601</v>
+      </c>
+      <c r="G47">
+        <v>2195.366</v>
+      </c>
+      <c r="H47">
+        <v>29718.987000000001</v>
+      </c>
+      <c r="I47">
+        <v>23254.960999999999</v>
+      </c>
+      <c r="J47">
+        <v>3110.03</v>
+      </c>
+      <c r="K47">
+        <v>13.763</v>
+      </c>
+      <c r="L47">
+        <v>-100</v>
+      </c>
+      <c r="M47">
+        <v>-2.79</v>
+      </c>
+      <c r="N47">
+        <v>23333.756000000001</v>
+      </c>
+      <c r="O47">
+        <v>26855.513999999999</v>
+      </c>
+      <c r="P47">
+        <v>3188.8249999999998</v>
+      </c>
+      <c r="Q47">
+        <v>798.50599999999997</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>1865</v>
+      </c>
+      <c r="T47">
+        <v>2863.473</v>
+      </c>
+      <c r="U47">
+        <v>1429.2860000000001</v>
+      </c>
+      <c r="V47">
+        <v>23.715</v>
+      </c>
+      <c r="W47">
+        <v>-2.4510000000000001</v>
+      </c>
+      <c r="X47">
+        <v>1815.1669999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-105.96599999999999</v>
+      </c>
+      <c r="AA47">
+        <v>91.757999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>97.906999999999996</v>
+      </c>
+      <c r="D48">
+        <v>313.58999999999997</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>313.58999999999997</v>
+      </c>
+      <c r="G48">
+        <v>1573.691</v>
+      </c>
+      <c r="H48">
+        <v>30987.001</v>
+      </c>
+      <c r="I48">
+        <v>24215.303</v>
+      </c>
+      <c r="J48">
+        <v>3203.5810000000001</v>
+      </c>
+      <c r="K48">
+        <v>16.181999999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>24295.830999999998</v>
+      </c>
+      <c r="O48">
+        <v>27930.387999999999</v>
+      </c>
+      <c r="P48">
+        <v>3284.1089999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-628.46799999999996</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>2026</v>
+      </c>
+      <c r="T48">
+        <v>3056.6129999999998</v>
+      </c>
+      <c r="U48">
+        <v>800.81799999999998</v>
+      </c>
+      <c r="V48">
+        <v>77.903000000000006</v>
+      </c>
+      <c r="W48">
+        <v>-4.0910000000000002</v>
+      </c>
+      <c r="X48">
+        <v>1146.577</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-231.14</v>
+      </c>
+      <c r="AA48">
+        <v>97.906999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>102.696</v>
+      </c>
+      <c r="D49">
+        <v>329.56099999999998</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>329.56099999999998</v>
+      </c>
+      <c r="G49">
+        <v>1501.68</v>
+      </c>
+      <c r="H49">
+        <v>32576.17</v>
+      </c>
+      <c r="I49">
+        <v>25704.078000000001</v>
+      </c>
+      <c r="J49">
+        <v>3211.221</v>
+      </c>
+      <c r="K49">
+        <v>15.377000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>25719.455000000002</v>
+      </c>
+      <c r="O49">
+        <v>29413.768</v>
+      </c>
+      <c r="P49">
+        <v>3226.598</v>
+      </c>
+      <c r="Q49">
+        <v>76.94</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>2064</v>
+      </c>
+      <c r="T49">
+        <v>3162.402</v>
+      </c>
+      <c r="U49">
+        <v>877.75800000000004</v>
+      </c>
+      <c r="V49">
+        <v>275.565</v>
+      </c>
+      <c r="W49">
+        <v>-18.771000000000001</v>
+      </c>
+      <c r="X49">
+        <v>1418.431</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-178.86600000000001</v>
+      </c>
+      <c r="AA49">
+        <v>102.696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>108.803</v>
+      </c>
+      <c r="D50">
+        <v>340.77499999999998</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>340.77499999999998</v>
+      </c>
+      <c r="G50">
+        <v>1019.134</v>
+      </c>
+      <c r="H50">
+        <v>34389.235999999997</v>
+      </c>
+      <c r="I50">
+        <v>27088.246999999999</v>
+      </c>
+      <c r="J50">
+        <v>3206.45</v>
+      </c>
+      <c r="K50">
+        <v>7.6449999999999996</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>27170.892</v>
+      </c>
+      <c r="O50">
+        <v>30989.133000000002</v>
+      </c>
+      <c r="P50">
+        <v>3289.0949999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-275.49400000000003</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2110</v>
+      </c>
+      <c r="T50">
+        <v>3400.1030000000001</v>
+      </c>
+      <c r="U50">
+        <v>602.26400000000001</v>
+      </c>
+      <c r="V50">
+        <v>61.009</v>
+      </c>
+      <c r="W50">
+        <v>-32.856999999999999</v>
+      </c>
+      <c r="X50">
+        <v>1575.0440000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-285.74</v>
+      </c>
+      <c r="AA50">
+        <v>108.803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>122.553</v>
+      </c>
+      <c r="D51">
+        <v>363.839</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>363.839</v>
+      </c>
+      <c r="G51">
+        <v>1433.8109999999999</v>
+      </c>
+      <c r="H51">
+        <v>35082.904000000002</v>
+      </c>
+      <c r="I51">
+        <v>26853.114000000001</v>
+      </c>
+      <c r="J51">
+        <v>3503.143</v>
+      </c>
+      <c r="K51">
+        <v>126.172</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-3.3069999999999999</v>
+      </c>
+      <c r="N51">
+        <v>27669.286</v>
+      </c>
+      <c r="O51">
+        <v>31564.998</v>
+      </c>
+      <c r="P51">
+        <v>4319.3149999999996</v>
+      </c>
+      <c r="Q51">
+        <v>-49.427</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>2174</v>
+      </c>
+      <c r="T51">
+        <v>3517.9059999999999</v>
+      </c>
+      <c r="U51">
+        <v>552.83699999999999</v>
+      </c>
+      <c r="V51">
+        <v>-103.22799999999999</v>
+      </c>
+      <c r="W51">
+        <v>-7.7759999999999998</v>
+      </c>
+      <c r="X51">
+        <v>795.42399999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-514.71600000000001</v>
+      </c>
+      <c r="AA51">
+        <v>122.553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>112.47</v>
+      </c>
+      <c r="D52">
+        <v>352.68900000000002</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>352.68900000000002</v>
+      </c>
+      <c r="G52">
+        <v>1285.106</v>
+      </c>
+      <c r="H52">
+        <v>37312.741000000002</v>
+      </c>
+      <c r="I52">
+        <v>28228.641</v>
+      </c>
+      <c r="J52">
+        <v>4399.1260000000002</v>
+      </c>
+      <c r="K52">
+        <v>139.44300000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>28618.083999999999</v>
+      </c>
+      <c r="O52">
+        <v>33525.618000000002</v>
+      </c>
+      <c r="P52">
+        <v>4788.5690000000004</v>
+      </c>
+      <c r="Q52">
+        <v>38.901000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>2257</v>
+      </c>
+      <c r="T52">
+        <v>3787.123</v>
+      </c>
+      <c r="U52">
+        <v>591.73800000000006</v>
+      </c>
+      <c r="V52">
+        <v>416.30500000000001</v>
+      </c>
+      <c r="W52">
+        <v>-25.585999999999999</v>
+      </c>
+      <c r="X52">
+        <v>1998.2090000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-66.936999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>112.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>111.748</v>
+      </c>
+      <c r="D53">
+        <v>350.11399999999998</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>350.11399999999998</v>
+      </c>
+      <c r="G53">
+        <v>2670.5079999999998</v>
+      </c>
+      <c r="H53">
+        <v>40950.82</v>
+      </c>
+      <c r="I53">
+        <v>31290.368999999999</v>
+      </c>
+      <c r="J53">
+        <v>5196.9989999999998</v>
+      </c>
+      <c r="K53">
+        <v>11.688000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>31302.057000000001</v>
+      </c>
+      <c r="O53">
+        <v>37072.023000000001</v>
+      </c>
+      <c r="P53">
+        <v>5208.6869999999999</v>
+      </c>
+      <c r="Q53">
+        <v>1342.989</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>2321</v>
+      </c>
+      <c r="T53">
+        <v>3878.797</v>
+      </c>
+      <c r="U53">
+        <v>1934.7270000000001</v>
+      </c>
+      <c r="V53">
+        <v>83.599000000000004</v>
+      </c>
+      <c r="W53">
+        <v>-26.323</v>
+      </c>
+      <c r="X53">
+        <v>3473.8449999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-193.59399999999999</v>
+      </c>
+      <c r="AA53">
+        <v>111.748</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>115.29900000000001</v>
+      </c>
+      <c r="D54">
+        <v>363.03800000000001</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>363.03800000000001</v>
+      </c>
+      <c r="G54">
+        <v>1055.6579999999999</v>
+      </c>
+      <c r="H54">
+        <v>42112.762999999999</v>
+      </c>
+      <c r="I54">
+        <v>32082.716</v>
+      </c>
+      <c r="J54">
+        <v>5193.1319999999996</v>
+      </c>
+      <c r="K54">
+        <v>10.839</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>32093.555</v>
+      </c>
+      <c r="O54">
+        <v>37952.716</v>
+      </c>
+      <c r="P54">
+        <v>5203.9709999999995</v>
+      </c>
+      <c r="Q54">
+        <v>-1126.8420000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2388</v>
+      </c>
+      <c r="T54">
+        <v>4160.0469999999996</v>
+      </c>
+      <c r="U54">
+        <v>807.88499999999999</v>
+      </c>
+      <c r="V54">
+        <v>165.54499999999999</v>
+      </c>
+      <c r="W54">
+        <v>-28.8</v>
+      </c>
+      <c r="X54">
+        <v>976.01499999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-640.35699999999997</v>
+      </c>
+      <c r="AA54">
+        <v>115.29900000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>114.70399999999999</v>
+      </c>
+      <c r="D55">
+        <v>374.62</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>374.62</v>
+      </c>
+      <c r="G55">
+        <v>2989.1529999999998</v>
+      </c>
+      <c r="H55">
+        <v>44345.896999999997</v>
+      </c>
+      <c r="I55">
+        <v>33567.938000000002</v>
+      </c>
+      <c r="J55">
+        <v>5391.7430000000004</v>
+      </c>
+      <c r="K55">
+        <v>9.5839999999999996</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1.389</v>
+      </c>
+      <c r="N55">
+        <v>33877.521999999997</v>
+      </c>
+      <c r="O55">
+        <v>39851.862000000001</v>
+      </c>
+      <c r="P55">
+        <v>5701.3270000000002</v>
+      </c>
+      <c r="Q55">
+        <v>954.33699999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>2391</v>
+      </c>
+      <c r="T55">
+        <v>4494.0349999999999</v>
+      </c>
+      <c r="U55">
+        <v>1762.222</v>
+      </c>
+      <c r="V55">
+        <v>17.393000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-29.933</v>
+      </c>
+      <c r="X55">
+        <v>2196.9969999999998</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-218.28200000000001</v>
+      </c>
+      <c r="AA55">
+        <v>114.70399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>120.83199999999999</v>
+      </c>
+      <c r="D56">
+        <v>388.25099999999998</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>388.25099999999998</v>
+      </c>
+      <c r="G56">
+        <v>2700.6779999999999</v>
+      </c>
+      <c r="H56">
+        <v>46229.343000000001</v>
+      </c>
+      <c r="I56">
+        <v>35034.478999999999</v>
+      </c>
+      <c r="J56">
+        <v>5786.5860000000002</v>
+      </c>
+      <c r="K56">
+        <v>7.82</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>35242.298999999999</v>
+      </c>
+      <c r="O56">
+        <v>41639.284</v>
+      </c>
+      <c r="P56">
+        <v>5994.4059999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-11.205</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>2426</v>
+      </c>
+      <c r="T56">
+        <v>4590.0590000000002</v>
+      </c>
+      <c r="U56">
+        <v>1751.0170000000001</v>
+      </c>
+      <c r="V56">
+        <v>107.764</v>
+      </c>
+      <c r="W56">
+        <v>-33.264000000000003</v>
+      </c>
+      <c r="X56">
+        <v>1737.546</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-386.38099999999997</v>
+      </c>
+      <c r="AA56">
+        <v>120.83199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>136.011</v>
+      </c>
+      <c r="D57">
+        <v>427.14499999999998</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>427.14499999999998</v>
+      </c>
+      <c r="G57">
+        <v>2462.0590000000002</v>
+      </c>
+      <c r="H57">
+        <v>46680.92</v>
+      </c>
+      <c r="I57">
+        <v>35607.406999999999</v>
+      </c>
+      <c r="J57">
+        <v>5712.6850000000004</v>
+      </c>
+      <c r="K57">
+        <v>12.821</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>35620.228000000003</v>
+      </c>
+      <c r="O57">
+        <v>41995.245000000003</v>
+      </c>
+      <c r="P57">
+        <v>5725.5060000000003</v>
+      </c>
+      <c r="Q57">
+        <v>-378.28899999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>2442</v>
+      </c>
+      <c r="T57">
+        <v>4685.6750000000002</v>
+      </c>
+      <c r="U57">
+        <v>1372.7280000000001</v>
+      </c>
+      <c r="V57">
+        <v>156.59800000000001</v>
+      </c>
+      <c r="W57">
+        <v>-33.4</v>
+      </c>
+      <c r="X57">
+        <v>274.75299999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-292.70800000000003</v>
+      </c>
+      <c r="AA57">
+        <v>136.011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>115.459</v>
+      </c>
+      <c r="D58">
+        <v>402.613</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>402.613</v>
+      </c>
+      <c r="G58">
+        <v>1421.27</v>
+      </c>
+      <c r="H58">
+        <v>48350.201999999997</v>
+      </c>
+      <c r="I58">
+        <v>37130.928999999996</v>
+      </c>
+      <c r="J58">
+        <v>5707.4229999999998</v>
+      </c>
+      <c r="K58">
+        <v>29.126999999999999</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>37160.055999999997</v>
+      </c>
+      <c r="O58">
+        <v>43571.735000000001</v>
+      </c>
+      <c r="P58">
+        <v>5736.55</v>
+      </c>
+      <c r="Q58">
+        <v>-555.57799999999997</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2506</v>
+      </c>
+      <c r="T58">
+        <v>4778.4669999999996</v>
+      </c>
+      <c r="U58">
+        <v>817.15</v>
+      </c>
+      <c r="V58">
+        <v>214.608</v>
+      </c>
+      <c r="W58">
+        <v>-33.433999999999997</v>
+      </c>
+      <c r="X58">
+        <v>1490.37</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-982.21400000000006</v>
+      </c>
+      <c r="AA58">
+        <v>115.459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>115.91200000000001</v>
+      </c>
+      <c r="D59">
+        <v>411.05099999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>411.05099999999999</v>
+      </c>
+      <c r="G59">
+        <v>2494.9459999999999</v>
+      </c>
+      <c r="H59">
+        <v>51066.46</v>
+      </c>
+      <c r="I59">
+        <v>39939.19</v>
+      </c>
+      <c r="J59">
+        <v>4929.3760000000002</v>
+      </c>
+      <c r="K59">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-353.23899999999998</v>
+      </c>
+      <c r="N59">
+        <v>40400.28</v>
+      </c>
+      <c r="O59">
+        <v>45991.463000000003</v>
+      </c>
+      <c r="P59">
+        <v>5390.4660000000003</v>
+      </c>
+      <c r="Q59">
+        <v>827.38400000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>2574</v>
+      </c>
+      <c r="T59">
+        <v>5074.9970000000003</v>
+      </c>
+      <c r="U59">
+        <v>1644.5340000000001</v>
+      </c>
+      <c r="V59">
+        <v>67.730999999999995</v>
+      </c>
+      <c r="W59">
+        <v>-33.445</v>
+      </c>
+      <c r="X59">
+        <v>2638.3110000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-847.49699999999996</v>
+      </c>
+      <c r="AA59">
+        <v>115.91200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>131.345</v>
+      </c>
+      <c r="D60">
+        <v>438.29500000000002</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>438.29500000000002</v>
+      </c>
+      <c r="G60">
+        <v>2287.8560000000002</v>
+      </c>
+      <c r="H60">
+        <v>53118.574999999997</v>
+      </c>
+      <c r="I60">
+        <v>41887.565999999999</v>
+      </c>
+      <c r="J60">
+        <v>4927.8770000000004</v>
+      </c>
+      <c r="K60">
+        <v>132.078</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>42244.644</v>
+      </c>
+      <c r="O60">
+        <v>47853.508999999998</v>
+      </c>
+      <c r="P60">
+        <v>5284.9549999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-276.65499999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>2728</v>
+      </c>
+      <c r="T60">
+        <v>5265.0659999999998</v>
+      </c>
+      <c r="U60">
+        <v>1367.8789999999999</v>
+      </c>
+      <c r="V60">
+        <v>225.58699999999999</v>
+      </c>
+      <c r="W60">
+        <v>-35.933</v>
+      </c>
+      <c r="X60">
+        <v>1889.116</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-287.45299999999997</v>
+      </c>
+      <c r="AA60">
+        <v>131.345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>134.84200000000001</v>
+      </c>
+      <c r="D61">
+        <v>454.12599999999998</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>454.12599999999998</v>
+      </c>
+      <c r="G61">
+        <v>2751.04</v>
+      </c>
+      <c r="H61">
+        <v>55375.22</v>
+      </c>
+      <c r="I61">
+        <v>44342.944000000003</v>
+      </c>
+      <c r="J61">
+        <v>4777.68</v>
+      </c>
+      <c r="K61">
+        <v>134.375</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>44477.319000000003</v>
+      </c>
+      <c r="O61">
+        <v>49991.046000000002</v>
+      </c>
+      <c r="P61">
+        <v>4912.0550000000003</v>
+      </c>
+      <c r="Q61">
+        <v>427.90100000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>2937</v>
+      </c>
+      <c r="T61">
+        <v>5384.174</v>
+      </c>
+      <c r="U61">
+        <v>1795.78</v>
+      </c>
+      <c r="V61">
+        <v>239.71700000000001</v>
+      </c>
+      <c r="W61">
+        <v>-36.988</v>
+      </c>
+      <c r="X61">
+        <v>2040.271</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-404.52100000000002</v>
+      </c>
+      <c r="AA61">
+        <v>134.84200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>140.04599999999999</v>
+      </c>
+      <c r="D62">
+        <v>482.80500000000001</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>482.80500000000001</v>
+      </c>
+      <c r="G62">
+        <v>1663.223</v>
+      </c>
+      <c r="H62">
+        <v>58981.285000000003</v>
+      </c>
+      <c r="I62">
+        <v>47893.464999999997</v>
+      </c>
+      <c r="J62">
+        <v>4426.8019999999997</v>
+      </c>
+      <c r="K62">
+        <v>139.684</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>48033.148999999998</v>
+      </c>
+      <c r="O62">
+        <v>53275.601999999999</v>
+      </c>
+      <c r="P62">
+        <v>4566.4859999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-664.67</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3130</v>
+      </c>
+      <c r="T62">
+        <v>5705.683</v>
+      </c>
+      <c r="U62">
+        <v>1131.1099999999999</v>
+      </c>
+      <c r="V62">
+        <v>94.222999999999999</v>
+      </c>
+      <c r="W62">
+        <v>-36.997999999999998</v>
+      </c>
+      <c r="X62">
+        <v>3392.8159999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-2352.1390000000001</v>
+      </c>
+      <c r="AA62">
+        <v>140.04599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>157.495</v>
+      </c>
+      <c r="D63">
+        <v>515.07299999999998</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>515.07299999999998</v>
+      </c>
+      <c r="G63">
+        <v>2787.136</v>
+      </c>
+      <c r="H63">
+        <v>62102.51</v>
+      </c>
+      <c r="I63">
+        <v>50935.254999999997</v>
+      </c>
+      <c r="J63">
+        <v>3476.107</v>
+      </c>
+      <c r="K63">
+        <v>132.35300000000001</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-200.893</v>
+      </c>
+      <c r="N63">
+        <v>51817.608</v>
+      </c>
+      <c r="O63">
+        <v>56117.785000000003</v>
+      </c>
+      <c r="P63">
+        <v>4358.46</v>
+      </c>
+      <c r="Q63">
+        <v>815.03700000000003</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>3210</v>
+      </c>
+      <c r="T63">
+        <v>5984.7250000000004</v>
+      </c>
+      <c r="U63">
+        <v>1946.1469999999999</v>
+      </c>
+      <c r="V63">
+        <v>127.76900000000001</v>
+      </c>
+      <c r="W63">
+        <v>-38.646999999999998</v>
+      </c>
+      <c r="X63">
+        <v>2937.0509999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-880.29399999999998</v>
+      </c>
+      <c r="AA63">
+        <v>157.495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>164.99700000000001</v>
+      </c>
+      <c r="D64">
+        <v>520.875</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>520.875</v>
+      </c>
+      <c r="G64">
+        <v>2975.4</v>
+      </c>
+      <c r="H64">
+        <v>64729.862999999998</v>
+      </c>
+      <c r="I64">
+        <v>51161.243000000002</v>
+      </c>
+      <c r="J64">
+        <v>4724.7539999999999</v>
+      </c>
+      <c r="K64">
+        <v>989.90099999999995</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>52901.144</v>
+      </c>
+      <c r="O64">
+        <v>58423.65</v>
+      </c>
+      <c r="P64">
+        <v>6464.6549999999997</v>
+      </c>
+      <c r="Q64">
+        <v>-382.09</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>3349</v>
+      </c>
+      <c r="T64">
+        <v>6306.2129999999997</v>
+      </c>
+      <c r="U64">
+        <v>1564.057</v>
+      </c>
+      <c r="V64">
+        <v>101.36</v>
+      </c>
+      <c r="W64">
+        <v>-41.183999999999997</v>
+      </c>
+      <c r="X64">
+        <v>2463.395</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-201.321</v>
+      </c>
+      <c r="AA64">
+        <v>164.99700000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>171.81800000000001</v>
+      </c>
+      <c r="D65">
+        <v>539.875</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>539.875</v>
+      </c>
+      <c r="G65">
+        <v>2747.7829999999999</v>
+      </c>
+      <c r="H65">
+        <v>67993.547000000006</v>
+      </c>
+      <c r="I65">
+        <v>55061.697</v>
+      </c>
+      <c r="J65">
+        <v>5112.0649999999996</v>
+      </c>
+      <c r="K65">
+        <v>230.834</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>55592.531000000003</v>
+      </c>
+      <c r="O65">
+        <v>61549.048999999999</v>
+      </c>
+      <c r="P65">
+        <v>5642.8990000000003</v>
+      </c>
+      <c r="Q65">
+        <v>-177.09</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>3420</v>
+      </c>
+      <c r="T65">
+        <v>6444.4979999999996</v>
+      </c>
+      <c r="U65">
+        <v>1386.9670000000001</v>
+      </c>
+      <c r="V65">
+        <v>316.39600000000002</v>
+      </c>
+      <c r="W65">
+        <v>-41.835000000000001</v>
+      </c>
+      <c r="X65">
+        <v>3034.3719999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-1175.027</v>
+      </c>
+      <c r="AA65">
+        <v>171.81800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>179.11799999999999</v>
+      </c>
+      <c r="D66">
+        <v>588.95899999999995</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>588.95899999999995</v>
+      </c>
+      <c r="G66">
+        <v>3043.567</v>
+      </c>
+      <c r="H66">
+        <v>73277.771999999997</v>
+      </c>
+      <c r="I66">
+        <v>58602.381000000001</v>
+      </c>
+      <c r="J66">
+        <v>6711.308</v>
+      </c>
+      <c r="K66">
+        <v>119.217</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>58721.597999999998</v>
+      </c>
+      <c r="O66">
+        <v>66369.119999999995</v>
+      </c>
+      <c r="P66">
+        <v>6830.5249999999996</v>
+      </c>
+      <c r="Q66">
+        <v>720.755</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3566</v>
+      </c>
+      <c r="T66">
+        <v>6908.652</v>
+      </c>
+      <c r="U66">
+        <v>2107.7220000000002</v>
+      </c>
+      <c r="V66">
+        <v>306.95999999999998</v>
+      </c>
+      <c r="W66">
+        <v>-41.874000000000002</v>
+      </c>
+      <c r="X66">
+        <v>5019.93</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-2296.4830000000002</v>
+      </c>
+      <c r="AA66">
+        <v>179.11799999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>176.774</v>
+      </c>
+      <c r="D67">
+        <v>592.05600000000004</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>592.05600000000004</v>
+      </c>
+      <c r="G67">
+        <v>3889.6660000000002</v>
+      </c>
+      <c r="H67">
+        <v>76504.350999999995</v>
+      </c>
+      <c r="I67">
+        <v>61207.248</v>
+      </c>
+      <c r="J67">
+        <v>6150.2860000000001</v>
+      </c>
+      <c r="K67">
+        <v>115.85299999999999</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-500.64699999999999</v>
+      </c>
+      <c r="N67">
+        <v>62273.101000000002</v>
+      </c>
+      <c r="O67">
+        <v>69415.606</v>
+      </c>
+      <c r="P67">
+        <v>7216.1390000000001</v>
+      </c>
+      <c r="Q67">
+        <v>648.66300000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>3715</v>
+      </c>
+      <c r="T67">
+        <v>7088.7449999999999</v>
+      </c>
+      <c r="U67">
+        <v>2756.3850000000002</v>
+      </c>
+      <c r="V67">
+        <v>258.43299999999999</v>
+      </c>
+      <c r="W67">
+        <v>-40.335999999999999</v>
+      </c>
+      <c r="X67">
+        <v>2985.0630000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-701.74099999999999</v>
+      </c>
+      <c r="AA67">
+        <v>176.774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>186.6</v>
+      </c>
+      <c r="D68">
+        <v>617.39800000000002</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>617.39800000000002</v>
+      </c>
+      <c r="G68">
+        <v>3646.1149999999998</v>
+      </c>
+      <c r="H68">
+        <v>80978.231</v>
+      </c>
+      <c r="I68">
+        <v>63293.705999999998</v>
+      </c>
+      <c r="J68">
+        <v>8593.2790000000005</v>
+      </c>
+      <c r="K68">
+        <v>165.655</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>64109.360999999997</v>
+      </c>
+      <c r="O68">
+        <v>73718.148000000001</v>
+      </c>
+      <c r="P68">
+        <v>9408.9339999999993</v>
+      </c>
+      <c r="Q68">
+        <v>-461.26</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>3881</v>
+      </c>
+      <c r="T68">
+        <v>7260.0829999999996</v>
+      </c>
+      <c r="U68">
+        <v>2295.125</v>
+      </c>
+      <c r="V68">
+        <v>244.09</v>
+      </c>
+      <c r="W68">
+        <v>-41.536999999999999</v>
+      </c>
+      <c r="X68">
+        <v>4248.5739999999996</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-906.41</v>
+      </c>
+      <c r="AA68">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>200.00899999999999</v>
+      </c>
+      <c r="D69">
+        <v>660.173</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>660.173</v>
+      </c>
+      <c r="G69">
+        <v>4580.6890000000003</v>
+      </c>
+      <c r="H69">
+        <v>84320.096000000005</v>
+      </c>
+      <c r="I69">
+        <v>65436.322999999997</v>
+      </c>
+      <c r="J69">
+        <v>9571.2929999999997</v>
+      </c>
+      <c r="K69">
+        <v>468.36500000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>66304.687999999995</v>
+      </c>
+      <c r="O69">
+        <v>76892.149999999994</v>
+      </c>
+      <c r="P69">
+        <v>10439.657999999999</v>
+      </c>
+      <c r="Q69">
+        <v>386.47399999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>3939</v>
+      </c>
+      <c r="T69">
+        <v>7427.9459999999999</v>
+      </c>
+      <c r="U69">
+        <v>2681.5990000000002</v>
+      </c>
+      <c r="V69">
+        <v>290.15499999999997</v>
+      </c>
+      <c r="W69">
+        <v>-41.633000000000003</v>
+      </c>
+      <c r="X69">
+        <v>3119.6030000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-675.19100000000003</v>
+      </c>
+      <c r="AA69">
+        <v>200.00899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>194.27699999999999</v>
+      </c>
+      <c r="D70">
+        <v>682.11599999999999</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>682.11599999999999</v>
+      </c>
+      <c r="G70">
+        <v>3119.5859999999998</v>
+      </c>
+      <c r="H70">
+        <v>87780.506999999998</v>
+      </c>
+      <c r="I70">
+        <v>68918.707999999999</v>
+      </c>
+      <c r="J70">
+        <v>9971.8070000000007</v>
+      </c>
+      <c r="K70">
+        <v>115.88200000000001</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>69034.59</v>
+      </c>
+      <c r="O70">
+        <v>79962.206000000006</v>
+      </c>
+      <c r="P70">
+        <v>10087.689</v>
+      </c>
+      <c r="Q70">
+        <v>-384.57799999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4025</v>
+      </c>
+      <c r="T70">
+        <v>7818.3010000000004</v>
+      </c>
+      <c r="U70">
+        <v>2297.0210000000002</v>
+      </c>
+      <c r="V70">
+        <v>219.46</v>
+      </c>
+      <c r="W70">
+        <v>-42.082999999999998</v>
+      </c>
+      <c r="X70">
+        <v>3308.0149999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1131.6559999999999</v>
+      </c>
+      <c r="AA70">
+        <v>194.27699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>199.083</v>
+      </c>
+      <c r="D71">
+        <v>707.86</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>707.86</v>
+      </c>
+      <c r="G71">
+        <v>5792.13</v>
+      </c>
+      <c r="H71">
+        <v>90223.508000000002</v>
+      </c>
+      <c r="I71">
+        <v>71255.072</v>
+      </c>
+      <c r="J71">
+        <v>8022.3270000000002</v>
+      </c>
+      <c r="K71">
+        <v>24.321999999999999</v>
+      </c>
+      <c r="L71">
+        <v>-100</v>
+      </c>
+      <c r="M71">
+        <v>-650</v>
+      </c>
+      <c r="N71">
+        <v>73429.394</v>
+      </c>
+      <c r="O71">
+        <v>82386.97</v>
+      </c>
+      <c r="P71">
+        <v>10196.648999999999</v>
+      </c>
+      <c r="Q71">
+        <v>1542.91</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>4060</v>
+      </c>
+      <c r="T71">
+        <v>7836.5379999999996</v>
+      </c>
+      <c r="U71">
+        <v>3839.931</v>
+      </c>
+      <c r="V71">
+        <v>268.71699999999998</v>
+      </c>
+      <c r="W71">
+        <v>-40.223999999999997</v>
+      </c>
+      <c r="X71">
+        <v>2243.404</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>2072.6129999999998</v>
+      </c>
+      <c r="AA71">
+        <v>199.083</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>209.78100000000001</v>
+      </c>
+      <c r="D72">
+        <v>724.74400000000003</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>724.74400000000003</v>
+      </c>
+      <c r="G72">
+        <v>5573.8190000000004</v>
+      </c>
+      <c r="H72">
+        <v>93851.46</v>
+      </c>
+      <c r="I72">
+        <v>72771.95</v>
+      </c>
+      <c r="J72">
+        <v>9772.85</v>
+      </c>
+      <c r="K72">
+        <v>613.22699999999998</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>74935.176999999996</v>
+      </c>
+      <c r="O72">
+        <v>85575.486999999994</v>
+      </c>
+      <c r="P72">
+        <v>11936.076999999999</v>
+      </c>
+      <c r="Q72">
+        <v>153.29499999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>4242</v>
+      </c>
+      <c r="T72">
+        <v>8275.973</v>
+      </c>
+      <c r="U72">
+        <v>3993.2260000000001</v>
+      </c>
+      <c r="V72">
+        <v>77.265000000000001</v>
+      </c>
+      <c r="W72">
+        <v>-41.86</v>
+      </c>
+      <c r="X72">
+        <v>3479.2089999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>91.587000000000003</v>
+      </c>
+      <c r="AA72">
+        <v>209.78100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>213.54599999999999</v>
+      </c>
+      <c r="D73">
+        <v>750.19600000000003</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>750.19600000000003</v>
+      </c>
+      <c r="G73">
+        <v>4771.7179999999998</v>
+      </c>
+      <c r="H73">
+        <v>96094.221999999994</v>
+      </c>
+      <c r="I73">
+        <v>74759.251999999993</v>
+      </c>
+      <c r="J73">
+        <v>10073.981</v>
+      </c>
+      <c r="K73">
+        <v>134.303</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>76092.951000000001</v>
+      </c>
+      <c r="O73">
+        <v>87427.535000000003</v>
+      </c>
+      <c r="P73">
+        <v>11407.68</v>
+      </c>
+      <c r="Q73">
+        <v>-979.58100000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>4340</v>
+      </c>
+      <c r="T73">
+        <v>8666.6869999999999</v>
+      </c>
+      <c r="U73">
+        <v>3013.645</v>
+      </c>
+      <c r="V73">
+        <v>800.06200000000001</v>
+      </c>
+      <c r="W73">
+        <v>-46.972999999999999</v>
+      </c>
+      <c r="X73">
+        <v>1593.66</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>224.51599999999999</v>
+      </c>
+      <c r="AA73">
+        <v>213.54599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>231.41800000000001</v>
+      </c>
+      <c r="D74">
+        <v>785.66099999999994</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>785.66099999999994</v>
+      </c>
+      <c r="G74">
+        <v>3243.8519999999999</v>
+      </c>
+      <c r="H74">
+        <v>99205.203999999998</v>
+      </c>
+      <c r="I74">
+        <v>79063.236000000004</v>
+      </c>
+      <c r="J74">
+        <v>10373.906999999999</v>
+      </c>
+      <c r="K74">
+        <v>127.47499999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>79190.710999999996</v>
+      </c>
+      <c r="O74">
+        <v>90527.426999999996</v>
+      </c>
+      <c r="P74">
+        <v>10501.382</v>
+      </c>
+      <c r="Q74">
+        <v>-202.48599999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>4480</v>
+      </c>
+      <c r="T74">
+        <v>8677.777</v>
+      </c>
+      <c r="U74">
+        <v>2811.1590000000001</v>
+      </c>
+      <c r="V74">
+        <v>-34.840000000000003</v>
+      </c>
+      <c r="W74">
+        <v>-46.511000000000003</v>
+      </c>
+      <c r="X74">
+        <v>3148.68</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>141.434</v>
+      </c>
+      <c r="AA74">
+        <v>231.41800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>226.59100000000001</v>
+      </c>
+      <c r="D75">
+        <v>793.15599999999995</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>793.15599999999995</v>
+      </c>
+      <c r="G75">
+        <v>5196.5550000000003</v>
+      </c>
+      <c r="H75">
+        <v>101847.228</v>
+      </c>
+      <c r="I75">
+        <v>81612.116999999998</v>
+      </c>
+      <c r="J75">
+        <v>7224.442</v>
+      </c>
+      <c r="K75">
+        <v>30.366</v>
+      </c>
+      <c r="L75">
+        <v>-100</v>
+      </c>
+      <c r="M75">
+        <v>-1100</v>
+      </c>
+      <c r="N75">
+        <v>84092.482999999993</v>
+      </c>
+      <c r="O75">
+        <v>92801.244000000006</v>
+      </c>
+      <c r="P75">
+        <v>10392.36</v>
+      </c>
+      <c r="Q75">
+        <v>882.23699999999997</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>4612</v>
+      </c>
+      <c r="T75">
+        <v>9045.9840000000004</v>
+      </c>
+      <c r="U75">
+        <v>3693.3960000000002</v>
+      </c>
+      <c r="V75">
+        <v>240.24199999999999</v>
+      </c>
+      <c r="W75">
+        <v>-43.502000000000002</v>
+      </c>
+      <c r="X75">
+        <v>1859.8689999999999</v>
+      </c>
+      <c r="Y75">
+        <v>687.55200000000002</v>
+      </c>
+      <c r="Z75">
+        <v>195.85499999999999</v>
+      </c>
+      <c r="AA75">
+        <v>226.59100000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>222.56399999999999</v>
+      </c>
+      <c r="D76">
+        <v>798.17600000000004</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>798.17600000000004</v>
+      </c>
+      <c r="G76">
+        <v>3878.3620000000001</v>
+      </c>
+      <c r="H76">
+        <v>105699.636</v>
+      </c>
+      <c r="I76">
+        <v>83431.082999999999</v>
+      </c>
+      <c r="J76">
+        <v>9024.9470000000001</v>
+      </c>
+      <c r="K76">
+        <v>12.42</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>85493.502999999997</v>
+      </c>
+      <c r="O76">
+        <v>96479.993000000002</v>
+      </c>
+      <c r="P76">
+        <v>11879.698</v>
+      </c>
+      <c r="Q76">
+        <v>-1473.3230000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>4800</v>
+      </c>
+      <c r="T76">
+        <v>9219.643</v>
+      </c>
+      <c r="U76">
+        <v>2220.0729999999999</v>
+      </c>
+      <c r="V76">
+        <v>388.04399999999998</v>
+      </c>
+      <c r="W76">
+        <v>-45.222000000000001</v>
+      </c>
+      <c r="X76">
+        <v>3131.9569999999999</v>
+      </c>
+      <c r="Y76">
+        <v>792.33100000000002</v>
+      </c>
+      <c r="Z76">
+        <v>-5.7770000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>222.56399999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>234.84399999999999</v>
+      </c>
+      <c r="D77">
+        <v>820.48099999999999</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>820.48099999999999</v>
+      </c>
+      <c r="G77">
+        <v>3877.3359999999998</v>
+      </c>
+      <c r="H77">
+        <v>111028.735</v>
+      </c>
+      <c r="I77">
+        <v>85720.519</v>
+      </c>
+      <c r="J77">
+        <v>11125.275</v>
+      </c>
+      <c r="K77">
+        <v>813.90099999999995</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>87584.42</v>
+      </c>
+      <c r="O77">
+        <v>101597.52899999999</v>
+      </c>
+      <c r="P77">
+        <v>13767.433000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-38.472999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>4880</v>
+      </c>
+      <c r="T77">
+        <v>9431.2060000000001</v>
+      </c>
+      <c r="U77">
+        <v>2181.6</v>
+      </c>
+      <c r="V77">
+        <v>1173.9179999999999</v>
+      </c>
+      <c r="W77">
+        <v>-45.231000000000002</v>
+      </c>
+      <c r="X77">
+        <v>4105.7830000000004</v>
+      </c>
+      <c r="Y77">
+        <v>778.25699999999995</v>
+      </c>
+      <c r="Z77">
+        <v>-1146.79</v>
+      </c>
+      <c r="AA77">
+        <v>234.84399999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>246.33</v>
+      </c>
+      <c r="D78">
+        <v>867.88400000000001</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>867.88400000000001</v>
+      </c>
+      <c r="G78">
+        <v>2104.4209999999998</v>
+      </c>
+      <c r="H78">
+        <v>116263.63400000001</v>
+      </c>
+      <c r="I78">
+        <v>90133.245999999999</v>
+      </c>
+      <c r="J78">
+        <v>13475.603999999999</v>
+      </c>
+      <c r="K78">
+        <v>827.05100000000004</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>90960.297000000006</v>
+      </c>
+      <c r="O78">
+        <v>106412.527</v>
+      </c>
+      <c r="P78">
+        <v>15114.196</v>
+      </c>
+      <c r="Q78">
+        <v>-482.04300000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4812</v>
+      </c>
+      <c r="T78">
+        <v>9851.107</v>
+      </c>
+      <c r="U78">
+        <v>1699.557</v>
+      </c>
+      <c r="V78">
+        <v>-863.69299999999998</v>
+      </c>
+      <c r="W78">
+        <v>-43.204000000000001</v>
+      </c>
+      <c r="X78">
+        <v>5887.03</v>
+      </c>
+      <c r="Y78">
+        <v>811.54100000000005</v>
+      </c>
+      <c r="Z78">
+        <v>-954.58799999999997</v>
+      </c>
+      <c r="AA78">
+        <v>246.33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>218.68600000000001</v>
+      </c>
+      <c r="D79">
+        <v>853.80600000000004</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>853.80600000000004</v>
+      </c>
+      <c r="G79">
+        <v>4715.9650000000001</v>
+      </c>
+      <c r="H79">
+        <v>123914.929</v>
+      </c>
+      <c r="I79">
+        <v>93692.339000000007</v>
+      </c>
+      <c r="J79">
+        <v>15672.732</v>
+      </c>
+      <c r="K79">
+        <v>50.533000000000001</v>
+      </c>
+      <c r="L79">
+        <v>-800</v>
+      </c>
+      <c r="M79">
+        <v>-1600</v>
+      </c>
+      <c r="N79">
+        <v>96092.872000000003</v>
+      </c>
+      <c r="O79">
+        <v>113555.164</v>
+      </c>
+      <c r="P79">
+        <v>18969.036</v>
+      </c>
+      <c r="Q79">
+        <v>2249.8209999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>4893</v>
+      </c>
+      <c r="T79">
+        <v>10359.764999999999</v>
+      </c>
+      <c r="U79">
+        <v>3949.3780000000002</v>
+      </c>
+      <c r="V79">
+        <v>231.553</v>
+      </c>
+      <c r="W79">
+        <v>-46.295000000000002</v>
+      </c>
+      <c r="X79">
+        <v>7546.1469999999999</v>
+      </c>
+      <c r="Y79">
+        <v>895.77099999999996</v>
+      </c>
+      <c r="Z79">
+        <v>-184.429</v>
+      </c>
+      <c r="AA79">
+        <v>218.68600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>256.76799999999997</v>
+      </c>
+      <c r="D80">
+        <v>887.86400000000003</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>887.86400000000003</v>
+      </c>
+      <c r="G80">
+        <v>3863.248</v>
+      </c>
+      <c r="H80">
+        <v>128303.887</v>
+      </c>
+      <c r="I80">
+        <v>98533.960999999996</v>
+      </c>
+      <c r="J80">
+        <v>15678.205</v>
+      </c>
+      <c r="K80">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>100059.076</v>
+      </c>
+      <c r="O80">
+        <v>117727.959</v>
+      </c>
+      <c r="P80">
+        <v>18141.561000000002</v>
+      </c>
+      <c r="Q80">
+        <v>-850.20799999999997</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>5197</v>
+      </c>
+      <c r="T80">
+        <v>10575.928</v>
+      </c>
+      <c r="U80">
+        <v>3099.17</v>
+      </c>
+      <c r="V80">
+        <v>112.59</v>
+      </c>
+      <c r="W80">
+        <v>-49.892000000000003</v>
+      </c>
+      <c r="X80">
+        <v>3920.0790000000002</v>
+      </c>
+      <c r="Y80">
+        <v>938.24099999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-153.43700000000001</v>
+      </c>
+      <c r="AA80">
+        <v>256.76799999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>293.137</v>
+      </c>
+      <c r="D81">
+        <v>972.72500000000002</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>972.72500000000002</v>
+      </c>
+      <c r="G81">
+        <v>4188.4210000000003</v>
+      </c>
+      <c r="H81">
+        <v>133225.77100000001</v>
+      </c>
+      <c r="I81">
+        <v>104403.376</v>
+      </c>
+      <c r="J81">
+        <v>15178.83</v>
+      </c>
+      <c r="K81">
+        <v>34.009</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>104537.38499999999</v>
+      </c>
+      <c r="O81">
+        <v>121881.162</v>
+      </c>
+      <c r="P81">
+        <v>16282.585999999999</v>
+      </c>
+      <c r="Q81">
+        <v>591.97900000000004</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>5294</v>
+      </c>
+      <c r="T81">
+        <v>11344.609</v>
+      </c>
+      <c r="U81">
+        <v>3691.1489999999999</v>
+      </c>
+      <c r="V81">
+        <v>74.364999999999995</v>
+      </c>
+      <c r="W81">
+        <v>-49.872999999999998</v>
+      </c>
+      <c r="X81">
+        <v>4419.4759999999997</v>
+      </c>
+      <c r="Y81">
+        <v>969.74699999999996</v>
+      </c>
+      <c r="Z81">
+        <v>654.56500000000005</v>
+      </c>
+      <c r="AA81">
+        <v>293.137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>295.56</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1045.299</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1045.299</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5546.0190000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>142502.13399999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>114928.8</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8374.4580000000005</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>73.296999999999997</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>120294.31299999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>130751.488</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>14597.87</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>1403.605</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5483</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11750.646000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5094.7539999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>112.754</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-51.433999999999997</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>8833.0499999999993</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>857.899</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>335.13900000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>295.56</v>
       </c>
     </row>
